--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jass_\Desktop\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEGAS PC\Desktop\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="151">
   <si>
     <t xml:space="preserve">esta_encendido(pastillas_freno, </t>
   </si>
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t>" id = "</t>
-  </si>
-  <si>
-    <t>"/&gt;&lt;label for="</t>
   </si>
   <si>
     <t>"&gt;&lt;img src = "</t>
@@ -573,12 +570,21 @@
   <si>
     <t>$output = NULL;</t>
   </si>
+  <si>
+    <t>'])){echo "checked";}?&gt;</t>
+  </si>
+  <si>
+    <t>/&gt;&lt;label for="</t>
+  </si>
+  <si>
+    <t>"&lt;?php if(isset($_POST['</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +622,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDC322F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -637,13 +649,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB135"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E99" workbookViewId="0">
-      <selection activeCell="V71" sqref="V71:V135"/>
+    <sheetView tabSelected="1" topLeftCell="U35" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +957,7 @@
     <col min="9" max="10" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -985,7 +1003,7 @@
         <v>r1</v>
       </c>
       <c r="Q1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R1" t="str">
         <f>CONCATENATE($K1,$L1)</f>
@@ -998,32 +1016,44 @@
         <f>CONCATENATE($K1,$L1)</f>
         <v>r1</v>
       </c>
-      <c r="U1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V1" t="str">
+      <c r="U1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W1" s="4">
+        <v>1</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z1" t="str">
         <f>CONCATENATE($K1,$L1)</f>
         <v>r1</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB1" t="s">
         <v>136</v>
       </c>
-      <c r="X1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y1" t="str">
+      <c r="AC1" t="str">
         <f>CONCATENATE($K1,$L1)</f>
         <v>r1</v>
       </c>
-      <c r="Z1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB1" t="str">
-        <f>CONCATENATE(O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1,Z1)</f>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r1" value = "r1" id = "r1"/&gt;&lt;label for="r1"&gt;&lt;img src = "./Res/IMGS/r1.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF1" t="str">
+        <f>CONCATENATE(O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1,Z1,AA1,AB1,AC1,AD1,)</f>
+        <v xml:space="preserve"> &lt;input type=checkbox name="r1" value = "r1" id = "r1"&lt;?php if(isset($_POST['r1'])){echo "checked";}?&gt;/&gt;&lt;label for="r1"&gt;&lt;img src = "./Res/IMGS/r1.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1099,7 @@
         <v>r2</v>
       </c>
       <c r="Q2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R2" t="str">
         <f t="shared" ref="R2:T65" si="2">CONCATENATE($K2,$L2)</f>
@@ -1082,32 +1112,44 @@
         <f t="shared" si="2"/>
         <v>r2</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W2" s="4">
+        <v>2</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2" t="str">
+        <f t="shared" ref="Z2:Z65" si="3">CONCATENATE($K2,$L2)</f>
+        <v>r2</v>
+      </c>
+      <c r="AA2" t="s">
         <v>135</v>
       </c>
-      <c r="V2" t="str">
-        <f t="shared" ref="V2:V65" si="3">CONCATENATE($K2,$L2)</f>
+      <c r="AB2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC2" t="str">
+        <f t="shared" ref="AC2:AC65" si="4">CONCATENATE($K2,$L2)</f>
         <v>r2</v>
       </c>
-      <c r="W2" t="s">
-        <v>136</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AD2" t="s">
         <v>137</v>
       </c>
-      <c r="Y2" t="str">
-        <f t="shared" ref="Y2:Y65" si="4">CONCATENATE($K2,$L2)</f>
-        <v>r2</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB65" si="5">CONCATENATE(O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2,Z2)</f>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r2" value = "r2" id = "r2"/&gt;&lt;label for="r2"&gt;&lt;img src = "./Res/IMGS/r2.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AF2" t="str">
+        <f t="shared" ref="AF2:AF65" si="5">CONCATENATE(O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2,Z2,AA2,AB2,AC2,AD2,)</f>
+        <v xml:space="preserve"> &lt;input type=checkbox name="r2" value = "r2" id = "r2"&lt;?php if(isset($_POST['r2'])){echo "checked";}?&gt;/&gt;&lt;label for="r2"&gt;&lt;img src = "./Res/IMGS/r2.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1195,7 @@
         <v>r3</v>
       </c>
       <c r="Q3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R3" t="str">
         <f t="shared" si="2"/>
@@ -1166,32 +1208,44 @@
         <f t="shared" si="2"/>
         <v>r3</v>
       </c>
-      <c r="U3" t="s">
-        <v>135</v>
-      </c>
-      <c r="V3" t="str">
+      <c r="U3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W3" s="4">
+        <v>3</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z3" t="str">
         <f t="shared" si="3"/>
         <v>r3</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AA3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" t="s">
         <v>136</v>
       </c>
-      <c r="X3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y3" t="str">
+      <c r="AC3" t="str">
         <f t="shared" si="4"/>
         <v>r3</v>
       </c>
-      <c r="Z3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB3" t="str">
+      <c r="AD3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF3" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r3" value = "r3" id = "r3"/&gt;&lt;label for="r3"&gt;&lt;img src = "./Res/IMGS/r3.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r3" value = "r3" id = "r3"&lt;?php if(isset($_POST['r3'])){echo "checked";}?&gt;/&gt;&lt;label for="r3"&gt;&lt;img src = "./Res/IMGS/r3.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1291,7 @@
         <v>r4</v>
       </c>
       <c r="Q4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R4" t="str">
         <f t="shared" si="2"/>
@@ -1250,32 +1304,44 @@
         <f t="shared" si="2"/>
         <v>r4</v>
       </c>
-      <c r="U4" t="s">
-        <v>135</v>
-      </c>
-      <c r="V4" t="str">
+      <c r="U4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W4" s="4">
+        <v>4</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z4" t="str">
         <f t="shared" si="3"/>
         <v>r4</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AA4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB4" t="s">
         <v>136</v>
       </c>
-      <c r="X4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y4" t="str">
+      <c r="AC4" t="str">
         <f t="shared" si="4"/>
         <v>r4</v>
       </c>
-      <c r="Z4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB4" t="str">
+      <c r="AD4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF4" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r4" value = "r4" id = "r4"/&gt;&lt;label for="r4"&gt;&lt;img src = "./Res/IMGS/r4.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r4" value = "r4" id = "r4"&lt;?php if(isset($_POST['r4'])){echo "checked";}?&gt;/&gt;&lt;label for="r4"&gt;&lt;img src = "./Res/IMGS/r4.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1321,7 +1387,7 @@
         <v>r5</v>
       </c>
       <c r="Q5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" si="2"/>
@@ -1334,32 +1400,44 @@
         <f t="shared" si="2"/>
         <v>r5</v>
       </c>
-      <c r="U5" t="s">
-        <v>135</v>
-      </c>
-      <c r="V5" t="str">
+      <c r="U5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W5" s="4">
+        <v>5</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z5" t="str">
         <f t="shared" si="3"/>
         <v>r5</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AA5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="X5" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y5" t="str">
+      <c r="AC5" t="str">
         <f t="shared" si="4"/>
         <v>r5</v>
       </c>
-      <c r="Z5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB5" t="str">
+      <c r="AD5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r5" value = "r5" id = "r5"/&gt;&lt;label for="r5"&gt;&lt;img src = "./Res/IMGS/r5.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r5" value = "r5" id = "r5"&lt;?php if(isset($_POST['r5'])){echo "checked";}?&gt;/&gt;&lt;label for="r5"&gt;&lt;img src = "./Res/IMGS/r5.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1405,7 +1483,7 @@
         <v>r6</v>
       </c>
       <c r="Q6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R6" t="str">
         <f t="shared" si="2"/>
@@ -1418,32 +1496,44 @@
         <f t="shared" si="2"/>
         <v>r6</v>
       </c>
-      <c r="U6" t="s">
-        <v>135</v>
-      </c>
-      <c r="V6" t="str">
+      <c r="U6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W6" s="4">
+        <v>6</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z6" t="str">
         <f t="shared" si="3"/>
         <v>r6</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AA6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB6" t="s">
         <v>136</v>
       </c>
-      <c r="X6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y6" t="str">
+      <c r="AC6" t="str">
         <f t="shared" si="4"/>
         <v>r6</v>
       </c>
-      <c r="Z6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB6" t="str">
+      <c r="AD6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF6" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r6" value = "r6" id = "r6"/&gt;&lt;label for="r6"&gt;&lt;img src = "./Res/IMGS/r6.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r6" value = "r6" id = "r6"&lt;?php if(isset($_POST['r6'])){echo "checked";}?&gt;/&gt;&lt;label for="r6"&gt;&lt;img src = "./Res/IMGS/r6.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1579,7 @@
         <v>r7</v>
       </c>
       <c r="Q7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="2"/>
@@ -1502,32 +1592,44 @@
         <f t="shared" si="2"/>
         <v>r7</v>
       </c>
-      <c r="U7" t="s">
-        <v>135</v>
-      </c>
-      <c r="V7" t="str">
+      <c r="U7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W7" s="4">
+        <v>7</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z7" t="str">
         <f t="shared" si="3"/>
         <v>r7</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AA7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB7" t="s">
         <v>136</v>
       </c>
-      <c r="X7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y7" t="str">
+      <c r="AC7" t="str">
         <f t="shared" si="4"/>
         <v>r7</v>
       </c>
-      <c r="Z7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB7" t="str">
+      <c r="AD7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF7" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r7" value = "r7" id = "r7"/&gt;&lt;label for="r7"&gt;&lt;img src = "./Res/IMGS/r7.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r7" value = "r7" id = "r7"&lt;?php if(isset($_POST['r7'])){echo "checked";}?&gt;/&gt;&lt;label for="r7"&gt;&lt;img src = "./Res/IMGS/r7.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1573,7 +1675,7 @@
         <v>r8</v>
       </c>
       <c r="Q8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="2"/>
@@ -1586,32 +1688,44 @@
         <f t="shared" si="2"/>
         <v>r8</v>
       </c>
-      <c r="U8" t="s">
-        <v>135</v>
-      </c>
-      <c r="V8" t="str">
+      <c r="U8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W8" s="4">
+        <v>8</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z8" t="str">
         <f t="shared" si="3"/>
         <v>r8</v>
       </c>
-      <c r="W8" t="s">
+      <c r="AA8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB8" t="s">
         <v>136</v>
       </c>
-      <c r="X8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y8" t="str">
+      <c r="AC8" t="str">
         <f t="shared" si="4"/>
         <v>r8</v>
       </c>
-      <c r="Z8" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB8" t="str">
+      <c r="AD8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r8" value = "r8" id = "r8"/&gt;&lt;label for="r8"&gt;&lt;img src = "./Res/IMGS/r8.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r8" value = "r8" id = "r8"&lt;?php if(isset($_POST['r8'])){echo "checked";}?&gt;/&gt;&lt;label for="r8"&gt;&lt;img src = "./Res/IMGS/r8.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1657,7 +1771,7 @@
         <v>r9</v>
       </c>
       <c r="Q9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="2"/>
@@ -1670,32 +1784,44 @@
         <f t="shared" si="2"/>
         <v>r9</v>
       </c>
-      <c r="U9" t="s">
-        <v>135</v>
-      </c>
-      <c r="V9" t="str">
+      <c r="U9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W9" s="4">
+        <v>9</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z9" t="str">
         <f t="shared" si="3"/>
         <v>r9</v>
       </c>
-      <c r="W9" t="s">
+      <c r="AA9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB9" t="s">
         <v>136</v>
       </c>
-      <c r="X9" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y9" t="str">
+      <c r="AC9" t="str">
         <f t="shared" si="4"/>
         <v>r9</v>
       </c>
-      <c r="Z9" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB9" t="str">
+      <c r="AD9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF9" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r9" value = "r9" id = "r9"/&gt;&lt;label for="r9"&gt;&lt;img src = "./Res/IMGS/r9.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r9" value = "r9" id = "r9"&lt;?php if(isset($_POST['r9'])){echo "checked";}?&gt;/&gt;&lt;label for="r9"&gt;&lt;img src = "./Res/IMGS/r9.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1867,7 @@
         <v>r10</v>
       </c>
       <c r="Q10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="2"/>
@@ -1754,32 +1880,44 @@
         <f t="shared" si="2"/>
         <v>r10</v>
       </c>
-      <c r="U10" t="s">
-        <v>135</v>
-      </c>
-      <c r="V10" t="str">
+      <c r="U10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W10" s="4">
+        <v>10</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z10" t="str">
         <f t="shared" si="3"/>
         <v>r10</v>
       </c>
-      <c r="W10" t="s">
+      <c r="AA10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB10" t="s">
         <v>136</v>
       </c>
-      <c r="X10" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y10" t="str">
+      <c r="AC10" t="str">
         <f t="shared" si="4"/>
         <v>r10</v>
       </c>
-      <c r="Z10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB10" t="str">
+      <c r="AD10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r10" value = "r10" id = "r10"/&gt;&lt;label for="r10"&gt;&lt;img src = "./Res/IMGS/r10.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r10" value = "r10" id = "r10"&lt;?php if(isset($_POST['r10'])){echo "checked";}?&gt;/&gt;&lt;label for="r10"&gt;&lt;img src = "./Res/IMGS/r10.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1825,7 +1963,7 @@
         <v>r11</v>
       </c>
       <c r="Q11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="2"/>
@@ -1838,32 +1976,44 @@
         <f t="shared" si="2"/>
         <v>r11</v>
       </c>
-      <c r="U11" t="s">
-        <v>135</v>
-      </c>
-      <c r="V11" t="str">
+      <c r="U11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W11" s="4">
+        <v>11</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z11" t="str">
         <f t="shared" si="3"/>
         <v>r11</v>
       </c>
-      <c r="W11" t="s">
+      <c r="AA11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB11" t="s">
         <v>136</v>
       </c>
-      <c r="X11" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y11" t="str">
+      <c r="AC11" t="str">
         <f t="shared" si="4"/>
         <v>r11</v>
       </c>
-      <c r="Z11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB11" t="str">
+      <c r="AD11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF11" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r11" value = "r11" id = "r11"/&gt;&lt;label for="r11"&gt;&lt;img src = "./Res/IMGS/r11.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r11" value = "r11" id = "r11"&lt;?php if(isset($_POST['r11'])){echo "checked";}?&gt;/&gt;&lt;label for="r11"&gt;&lt;img src = "./Res/IMGS/r11.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1909,7 +2059,7 @@
         <v>r12</v>
       </c>
       <c r="Q12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="2"/>
@@ -1922,32 +2072,44 @@
         <f t="shared" si="2"/>
         <v>r12</v>
       </c>
-      <c r="U12" t="s">
-        <v>135</v>
-      </c>
-      <c r="V12" t="str">
+      <c r="U12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W12" s="4">
+        <v>12</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z12" t="str">
         <f t="shared" si="3"/>
         <v>r12</v>
       </c>
-      <c r="W12" t="s">
+      <c r="AA12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB12" t="s">
         <v>136</v>
       </c>
-      <c r="X12" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y12" t="str">
+      <c r="AC12" t="str">
         <f t="shared" si="4"/>
         <v>r12</v>
       </c>
-      <c r="Z12" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB12" t="str">
+      <c r="AD12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF12" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r12" value = "r12" id = "r12"/&gt;&lt;label for="r12"&gt;&lt;img src = "./Res/IMGS/r12.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r12" value = "r12" id = "r12"&lt;?php if(isset($_POST['r12'])){echo "checked";}?&gt;/&gt;&lt;label for="r12"&gt;&lt;img src = "./Res/IMGS/r12.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1993,7 +2155,7 @@
         <v>r13</v>
       </c>
       <c r="Q13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="2"/>
@@ -2006,32 +2168,44 @@
         <f t="shared" si="2"/>
         <v>r13</v>
       </c>
-      <c r="U13" t="s">
-        <v>135</v>
-      </c>
-      <c r="V13" t="str">
+      <c r="U13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W13" s="4">
+        <v>13</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z13" t="str">
         <f t="shared" si="3"/>
         <v>r13</v>
       </c>
-      <c r="W13" t="s">
+      <c r="AA13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB13" t="s">
         <v>136</v>
       </c>
-      <c r="X13" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y13" t="str">
+      <c r="AC13" t="str">
         <f t="shared" si="4"/>
         <v>r13</v>
       </c>
-      <c r="Z13" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB13" t="str">
+      <c r="AD13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF13" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r13" value = "r13" id = "r13"/&gt;&lt;label for="r13"&gt;&lt;img src = "./Res/IMGS/r13.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r13" value = "r13" id = "r13"&lt;?php if(isset($_POST['r13'])){echo "checked";}?&gt;/&gt;&lt;label for="r13"&gt;&lt;img src = "./Res/IMGS/r13.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2077,7 +2251,7 @@
         <v>r14</v>
       </c>
       <c r="Q14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R14" t="str">
         <f t="shared" si="2"/>
@@ -2090,32 +2264,44 @@
         <f t="shared" si="2"/>
         <v>r14</v>
       </c>
-      <c r="U14" t="s">
-        <v>135</v>
-      </c>
-      <c r="V14" t="str">
+      <c r="U14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W14" s="4">
+        <v>14</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z14" t="str">
         <f t="shared" si="3"/>
         <v>r14</v>
       </c>
-      <c r="W14" t="s">
+      <c r="AA14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB14" t="s">
         <v>136</v>
       </c>
-      <c r="X14" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y14" t="str">
+      <c r="AC14" t="str">
         <f t="shared" si="4"/>
         <v>r14</v>
       </c>
-      <c r="Z14" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB14" t="str">
+      <c r="AD14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF14" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r14" value = "r14" id = "r14"/&gt;&lt;label for="r14"&gt;&lt;img src = "./Res/IMGS/r14.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r14" value = "r14" id = "r14"&lt;?php if(isset($_POST['r14'])){echo "checked";}?&gt;/&gt;&lt;label for="r14"&gt;&lt;img src = "./Res/IMGS/r14.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2161,7 +2347,7 @@
         <v>r15</v>
       </c>
       <c r="Q15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R15" t="str">
         <f t="shared" si="2"/>
@@ -2174,32 +2360,44 @@
         <f t="shared" si="2"/>
         <v>r15</v>
       </c>
-      <c r="U15" t="s">
-        <v>135</v>
-      </c>
-      <c r="V15" t="str">
+      <c r="U15" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W15" s="4">
+        <v>15</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z15" t="str">
         <f t="shared" si="3"/>
         <v>r15</v>
       </c>
-      <c r="W15" t="s">
+      <c r="AA15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB15" t="s">
         <v>136</v>
       </c>
-      <c r="X15" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y15" t="str">
+      <c r="AC15" t="str">
         <f t="shared" si="4"/>
         <v>r15</v>
       </c>
-      <c r="Z15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB15" t="str">
+      <c r="AD15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF15" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r15" value = "r15" id = "r15"/&gt;&lt;label for="r15"&gt;&lt;img src = "./Res/IMGS/r15.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r15" value = "r15" id = "r15"&lt;?php if(isset($_POST['r15'])){echo "checked";}?&gt;/&gt;&lt;label for="r15"&gt;&lt;img src = "./Res/IMGS/r15.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2245,7 +2443,7 @@
         <v>r16</v>
       </c>
       <c r="Q16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="2"/>
@@ -2258,32 +2456,44 @@
         <f t="shared" si="2"/>
         <v>r16</v>
       </c>
-      <c r="U16" t="s">
-        <v>135</v>
-      </c>
-      <c r="V16" t="str">
+      <c r="U16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W16" s="4">
+        <v>16</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z16" t="str">
         <f t="shared" si="3"/>
         <v>r16</v>
       </c>
-      <c r="W16" t="s">
+      <c r="AA16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB16" t="s">
         <v>136</v>
       </c>
-      <c r="X16" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y16" t="str">
+      <c r="AC16" t="str">
         <f t="shared" si="4"/>
         <v>r16</v>
       </c>
-      <c r="Z16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB16" t="str">
+      <c r="AD16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF16" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r16" value = "r16" id = "r16"/&gt;&lt;label for="r16"&gt;&lt;img src = "./Res/IMGS/r16.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r16" value = "r16" id = "r16"&lt;?php if(isset($_POST['r16'])){echo "checked";}?&gt;/&gt;&lt;label for="r16"&gt;&lt;img src = "./Res/IMGS/r16.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2329,7 +2539,7 @@
         <v>r17</v>
       </c>
       <c r="Q17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R17" t="str">
         <f t="shared" si="2"/>
@@ -2342,32 +2552,44 @@
         <f t="shared" si="2"/>
         <v>r17</v>
       </c>
-      <c r="U17" t="s">
-        <v>135</v>
-      </c>
-      <c r="V17" t="str">
+      <c r="U17" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W17" s="4">
+        <v>17</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z17" t="str">
         <f t="shared" si="3"/>
         <v>r17</v>
       </c>
-      <c r="W17" t="s">
+      <c r="AA17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB17" t="s">
         <v>136</v>
       </c>
-      <c r="X17" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y17" t="str">
+      <c r="AC17" t="str">
         <f t="shared" si="4"/>
         <v>r17</v>
       </c>
-      <c r="Z17" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB17" t="str">
+      <c r="AD17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF17" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r17" value = "r17" id = "r17"/&gt;&lt;label for="r17"&gt;&lt;img src = "./Res/IMGS/r17.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r17" value = "r17" id = "r17"&lt;?php if(isset($_POST['r17'])){echo "checked";}?&gt;/&gt;&lt;label for="r17"&gt;&lt;img src = "./Res/IMGS/r17.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2413,7 +2635,7 @@
         <v>r18</v>
       </c>
       <c r="Q18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R18" t="str">
         <f t="shared" si="2"/>
@@ -2426,32 +2648,44 @@
         <f t="shared" si="2"/>
         <v>r18</v>
       </c>
-      <c r="U18" t="s">
-        <v>135</v>
-      </c>
-      <c r="V18" t="str">
+      <c r="U18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W18" s="4">
+        <v>18</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z18" t="str">
         <f t="shared" si="3"/>
         <v>r18</v>
       </c>
-      <c r="W18" t="s">
+      <c r="AA18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB18" t="s">
         <v>136</v>
       </c>
-      <c r="X18" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y18" t="str">
+      <c r="AC18" t="str">
         <f t="shared" si="4"/>
         <v>r18</v>
       </c>
-      <c r="Z18" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB18" t="str">
+      <c r="AD18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r18" value = "r18" id = "r18"/&gt;&lt;label for="r18"&gt;&lt;img src = "./Res/IMGS/r18.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r18" value = "r18" id = "r18"&lt;?php if(isset($_POST['r18'])){echo "checked";}?&gt;/&gt;&lt;label for="r18"&gt;&lt;img src = "./Res/IMGS/r18.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2497,7 +2731,7 @@
         <v>r19</v>
       </c>
       <c r="Q19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R19" t="str">
         <f t="shared" si="2"/>
@@ -2510,32 +2744,44 @@
         <f t="shared" si="2"/>
         <v>r19</v>
       </c>
-      <c r="U19" t="s">
-        <v>135</v>
-      </c>
-      <c r="V19" t="str">
+      <c r="U19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W19" s="4">
+        <v>19</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z19" t="str">
         <f t="shared" si="3"/>
         <v>r19</v>
       </c>
-      <c r="W19" t="s">
+      <c r="AA19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB19" t="s">
         <v>136</v>
       </c>
-      <c r="X19" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y19" t="str">
+      <c r="AC19" t="str">
         <f t="shared" si="4"/>
         <v>r19</v>
       </c>
-      <c r="Z19" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB19" t="str">
+      <c r="AD19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF19" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r19" value = "r19" id = "r19"/&gt;&lt;label for="r19"&gt;&lt;img src = "./Res/IMGS/r19.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r19" value = "r19" id = "r19"&lt;?php if(isset($_POST['r19'])){echo "checked";}?&gt;/&gt;&lt;label for="r19"&gt;&lt;img src = "./Res/IMGS/r19.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2581,7 +2827,7 @@
         <v>r20</v>
       </c>
       <c r="Q20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R20" t="str">
         <f t="shared" si="2"/>
@@ -2594,32 +2840,44 @@
         <f t="shared" si="2"/>
         <v>r20</v>
       </c>
-      <c r="U20" t="s">
-        <v>135</v>
-      </c>
-      <c r="V20" t="str">
+      <c r="U20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W20" s="4">
+        <v>20</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z20" t="str">
         <f t="shared" si="3"/>
         <v>r20</v>
       </c>
-      <c r="W20" t="s">
+      <c r="AA20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB20" t="s">
         <v>136</v>
       </c>
-      <c r="X20" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y20" t="str">
+      <c r="AC20" t="str">
         <f t="shared" si="4"/>
         <v>r20</v>
       </c>
-      <c r="Z20" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB20" t="str">
+      <c r="AD20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF20" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r20" value = "r20" id = "r20"/&gt;&lt;label for="r20"&gt;&lt;img src = "./Res/IMGS/r20.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r20" value = "r20" id = "r20"&lt;?php if(isset($_POST['r20'])){echo "checked";}?&gt;/&gt;&lt;label for="r20"&gt;&lt;img src = "./Res/IMGS/r20.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2665,7 +2923,7 @@
         <v>r21</v>
       </c>
       <c r="Q21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R21" t="str">
         <f t="shared" si="2"/>
@@ -2678,32 +2936,44 @@
         <f t="shared" si="2"/>
         <v>r21</v>
       </c>
-      <c r="U21" t="s">
-        <v>135</v>
-      </c>
-      <c r="V21" t="str">
+      <c r="U21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W21" s="4">
+        <v>21</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z21" t="str">
         <f t="shared" si="3"/>
         <v>r21</v>
       </c>
-      <c r="W21" t="s">
+      <c r="AA21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB21" t="s">
         <v>136</v>
       </c>
-      <c r="X21" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y21" t="str">
+      <c r="AC21" t="str">
         <f t="shared" si="4"/>
         <v>r21</v>
       </c>
-      <c r="Z21" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB21" t="str">
+      <c r="AD21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF21" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r21" value = "r21" id = "r21"/&gt;&lt;label for="r21"&gt;&lt;img src = "./Res/IMGS/r21.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r21" value = "r21" id = "r21"&lt;?php if(isset($_POST['r21'])){echo "checked";}?&gt;/&gt;&lt;label for="r21"&gt;&lt;img src = "./Res/IMGS/r21.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2749,7 +3019,7 @@
         <v>r22</v>
       </c>
       <c r="Q22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R22" t="str">
         <f t="shared" si="2"/>
@@ -2762,32 +3032,44 @@
         <f t="shared" si="2"/>
         <v>r22</v>
       </c>
-      <c r="U22" t="s">
-        <v>135</v>
-      </c>
-      <c r="V22" t="str">
+      <c r="U22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W22" s="4">
+        <v>22</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z22" t="str">
         <f t="shared" si="3"/>
         <v>r22</v>
       </c>
-      <c r="W22" t="s">
+      <c r="AA22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB22" t="s">
         <v>136</v>
       </c>
-      <c r="X22" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y22" t="str">
+      <c r="AC22" t="str">
         <f t="shared" si="4"/>
         <v>r22</v>
       </c>
-      <c r="Z22" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB22" t="str">
+      <c r="AD22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF22" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r22" value = "r22" id = "r22"/&gt;&lt;label for="r22"&gt;&lt;img src = "./Res/IMGS/r22.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r22" value = "r22" id = "r22"&lt;?php if(isset($_POST['r22'])){echo "checked";}?&gt;/&gt;&lt;label for="r22"&gt;&lt;img src = "./Res/IMGS/r22.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2833,7 +3115,7 @@
         <v>r23</v>
       </c>
       <c r="Q23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R23" t="str">
         <f t="shared" si="2"/>
@@ -2846,32 +3128,44 @@
         <f t="shared" si="2"/>
         <v>r23</v>
       </c>
-      <c r="U23" t="s">
-        <v>135</v>
-      </c>
-      <c r="V23" t="str">
+      <c r="U23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W23" s="4">
+        <v>23</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z23" t="str">
         <f t="shared" si="3"/>
         <v>r23</v>
       </c>
-      <c r="W23" t="s">
+      <c r="AA23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB23" t="s">
         <v>136</v>
       </c>
-      <c r="X23" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y23" t="str">
+      <c r="AC23" t="str">
         <f t="shared" si="4"/>
         <v>r23</v>
       </c>
-      <c r="Z23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB23" t="str">
+      <c r="AD23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r23" value = "r23" id = "r23"/&gt;&lt;label for="r23"&gt;&lt;img src = "./Res/IMGS/r23.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r23" value = "r23" id = "r23"&lt;?php if(isset($_POST['r23'])){echo "checked";}?&gt;/&gt;&lt;label for="r23"&gt;&lt;img src = "./Res/IMGS/r23.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2917,7 +3211,7 @@
         <v>r24</v>
       </c>
       <c r="Q24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R24" t="str">
         <f t="shared" si="2"/>
@@ -2930,32 +3224,44 @@
         <f t="shared" si="2"/>
         <v>r24</v>
       </c>
-      <c r="U24" t="s">
-        <v>135</v>
-      </c>
-      <c r="V24" t="str">
+      <c r="U24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W24" s="4">
+        <v>24</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z24" t="str">
         <f t="shared" si="3"/>
         <v>r24</v>
       </c>
-      <c r="W24" t="s">
+      <c r="AA24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB24" t="s">
         <v>136</v>
       </c>
-      <c r="X24" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y24" t="str">
+      <c r="AC24" t="str">
         <f t="shared" si="4"/>
         <v>r24</v>
       </c>
-      <c r="Z24" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB24" t="str">
+      <c r="AD24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF24" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r24" value = "r24" id = "r24"/&gt;&lt;label for="r24"&gt;&lt;img src = "./Res/IMGS/r24.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r24" value = "r24" id = "r24"&lt;?php if(isset($_POST['r24'])){echo "checked";}?&gt;/&gt;&lt;label for="r24"&gt;&lt;img src = "./Res/IMGS/r24.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3001,7 +3307,7 @@
         <v>r25</v>
       </c>
       <c r="Q25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R25" t="str">
         <f t="shared" si="2"/>
@@ -3014,32 +3320,44 @@
         <f t="shared" si="2"/>
         <v>r25</v>
       </c>
-      <c r="U25" t="s">
-        <v>135</v>
-      </c>
-      <c r="V25" t="str">
+      <c r="U25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W25" s="4">
+        <v>25</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z25" t="str">
         <f t="shared" si="3"/>
         <v>r25</v>
       </c>
-      <c r="W25" t="s">
+      <c r="AA25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB25" t="s">
         <v>136</v>
       </c>
-      <c r="X25" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y25" t="str">
+      <c r="AC25" t="str">
         <f t="shared" si="4"/>
         <v>r25</v>
       </c>
-      <c r="Z25" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB25" t="str">
+      <c r="AD25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF25" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r25" value = "r25" id = "r25"/&gt;&lt;label for="r25"&gt;&lt;img src = "./Res/IMGS/r25.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r25" value = "r25" id = "r25"&lt;?php if(isset($_POST['r25'])){echo "checked";}?&gt;/&gt;&lt;label for="r25"&gt;&lt;img src = "./Res/IMGS/r25.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3085,7 +3403,7 @@
         <v>r26</v>
       </c>
       <c r="Q26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" si="2"/>
@@ -3098,32 +3416,44 @@
         <f t="shared" si="2"/>
         <v>r26</v>
       </c>
-      <c r="U26" t="s">
-        <v>135</v>
-      </c>
-      <c r="V26" t="str">
+      <c r="U26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W26" s="4">
+        <v>26</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z26" t="str">
         <f t="shared" si="3"/>
         <v>r26</v>
       </c>
-      <c r="W26" t="s">
+      <c r="AA26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB26" t="s">
         <v>136</v>
       </c>
-      <c r="X26" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y26" t="str">
+      <c r="AC26" t="str">
         <f t="shared" si="4"/>
         <v>r26</v>
       </c>
-      <c r="Z26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB26" t="str">
+      <c r="AD26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF26" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r26" value = "r26" id = "r26"/&gt;&lt;label for="r26"&gt;&lt;img src = "./Res/IMGS/r26.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r26" value = "r26" id = "r26"&lt;?php if(isset($_POST['r26'])){echo "checked";}?&gt;/&gt;&lt;label for="r26"&gt;&lt;img src = "./Res/IMGS/r26.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -3169,7 +3499,7 @@
         <v>r27</v>
       </c>
       <c r="Q27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R27" t="str">
         <f t="shared" si="2"/>
@@ -3182,32 +3512,44 @@
         <f t="shared" si="2"/>
         <v>r27</v>
       </c>
-      <c r="U27" t="s">
-        <v>135</v>
-      </c>
-      <c r="V27" t="str">
+      <c r="U27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W27" s="4">
+        <v>27</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z27" t="str">
         <f t="shared" si="3"/>
         <v>r27</v>
       </c>
-      <c r="W27" t="s">
+      <c r="AA27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB27" t="s">
         <v>136</v>
       </c>
-      <c r="X27" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y27" t="str">
+      <c r="AC27" t="str">
         <f t="shared" si="4"/>
         <v>r27</v>
       </c>
-      <c r="Z27" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB27" t="str">
+      <c r="AD27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF27" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r27" value = "r27" id = "r27"/&gt;&lt;label for="r27"&gt;&lt;img src = "./Res/IMGS/r27.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r27" value = "r27" id = "r27"&lt;?php if(isset($_POST['r27'])){echo "checked";}?&gt;/&gt;&lt;label for="r27"&gt;&lt;img src = "./Res/IMGS/r27.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -3253,7 +3595,7 @@
         <v>r28</v>
       </c>
       <c r="Q28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R28" t="str">
         <f t="shared" si="2"/>
@@ -3266,32 +3608,44 @@
         <f t="shared" si="2"/>
         <v>r28</v>
       </c>
-      <c r="U28" t="s">
-        <v>135</v>
-      </c>
-      <c r="V28" t="str">
+      <c r="U28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W28" s="4">
+        <v>28</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z28" t="str">
         <f t="shared" si="3"/>
         <v>r28</v>
       </c>
-      <c r="W28" t="s">
+      <c r="AA28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB28" t="s">
         <v>136</v>
       </c>
-      <c r="X28" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y28" t="str">
+      <c r="AC28" t="str">
         <f t="shared" si="4"/>
         <v>r28</v>
       </c>
-      <c r="Z28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB28" t="str">
+      <c r="AD28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF28" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r28" value = "r28" id = "r28"/&gt;&lt;label for="r28"&gt;&lt;img src = "./Res/IMGS/r28.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r28" value = "r28" id = "r28"&lt;?php if(isset($_POST['r28'])){echo "checked";}?&gt;/&gt;&lt;label for="r28"&gt;&lt;img src = "./Res/IMGS/r28.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -3337,7 +3691,7 @@
         <v>r29</v>
       </c>
       <c r="Q29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R29" t="str">
         <f t="shared" si="2"/>
@@ -3350,32 +3704,44 @@
         <f t="shared" si="2"/>
         <v>r29</v>
       </c>
-      <c r="U29" t="s">
-        <v>135</v>
-      </c>
-      <c r="V29" t="str">
+      <c r="U29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W29" s="4">
+        <v>29</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z29" t="str">
         <f t="shared" si="3"/>
         <v>r29</v>
       </c>
-      <c r="W29" t="s">
+      <c r="AA29" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB29" t="s">
         <v>136</v>
       </c>
-      <c r="X29" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y29" t="str">
+      <c r="AC29" t="str">
         <f t="shared" si="4"/>
         <v>r29</v>
       </c>
-      <c r="Z29" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB29" t="str">
+      <c r="AD29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF29" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r29" value = "r29" id = "r29"/&gt;&lt;label for="r29"&gt;&lt;img src = "./Res/IMGS/r29.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r29" value = "r29" id = "r29"&lt;?php if(isset($_POST['r29'])){echo "checked";}?&gt;/&gt;&lt;label for="r29"&gt;&lt;img src = "./Res/IMGS/r29.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -3421,7 +3787,7 @@
         <v>r30</v>
       </c>
       <c r="Q30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R30" t="str">
         <f t="shared" si="2"/>
@@ -3434,32 +3800,44 @@
         <f t="shared" si="2"/>
         <v>r30</v>
       </c>
-      <c r="U30" t="s">
-        <v>135</v>
-      </c>
-      <c r="V30" t="str">
+      <c r="U30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W30" s="4">
+        <v>30</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z30" t="str">
         <f t="shared" si="3"/>
         <v>r30</v>
       </c>
-      <c r="W30" t="s">
+      <c r="AA30" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB30" t="s">
         <v>136</v>
       </c>
-      <c r="X30" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y30" t="str">
+      <c r="AC30" t="str">
         <f t="shared" si="4"/>
         <v>r30</v>
       </c>
-      <c r="Z30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB30" t="str">
+      <c r="AD30" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF30" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r30" value = "r30" id = "r30"/&gt;&lt;label for="r30"&gt;&lt;img src = "./Res/IMGS/r30.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r30" value = "r30" id = "r30"&lt;?php if(isset($_POST['r30'])){echo "checked";}?&gt;/&gt;&lt;label for="r30"&gt;&lt;img src = "./Res/IMGS/r30.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -3505,7 +3883,7 @@
         <v>r31</v>
       </c>
       <c r="Q31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R31" t="str">
         <f t="shared" si="2"/>
@@ -3518,32 +3896,44 @@
         <f t="shared" si="2"/>
         <v>r31</v>
       </c>
-      <c r="U31" t="s">
-        <v>135</v>
-      </c>
-      <c r="V31" t="str">
+      <c r="U31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W31" s="4">
+        <v>31</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z31" t="str">
         <f t="shared" si="3"/>
         <v>r31</v>
       </c>
-      <c r="W31" t="s">
+      <c r="AA31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB31" t="s">
         <v>136</v>
       </c>
-      <c r="X31" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y31" t="str">
+      <c r="AC31" t="str">
         <f t="shared" si="4"/>
         <v>r31</v>
       </c>
-      <c r="Z31" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB31" t="str">
+      <c r="AD31" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF31" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r31" value = "r31" id = "r31"/&gt;&lt;label for="r31"&gt;&lt;img src = "./Res/IMGS/r31.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r31" value = "r31" id = "r31"&lt;?php if(isset($_POST['r31'])){echo "checked";}?&gt;/&gt;&lt;label for="r31"&gt;&lt;img src = "./Res/IMGS/r31.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -3589,7 +3979,7 @@
         <v>r32</v>
       </c>
       <c r="Q32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R32" t="str">
         <f t="shared" si="2"/>
@@ -3602,32 +3992,44 @@
         <f t="shared" si="2"/>
         <v>r32</v>
       </c>
-      <c r="U32" t="s">
-        <v>135</v>
-      </c>
-      <c r="V32" t="str">
+      <c r="U32" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W32" s="4">
+        <v>32</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z32" t="str">
         <f t="shared" si="3"/>
         <v>r32</v>
       </c>
-      <c r="W32" t="s">
+      <c r="AA32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB32" t="s">
         <v>136</v>
       </c>
-      <c r="X32" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y32" t="str">
+      <c r="AC32" t="str">
         <f t="shared" si="4"/>
         <v>r32</v>
       </c>
-      <c r="Z32" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB32" t="str">
+      <c r="AD32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF32" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r32" value = "r32" id = "r32"/&gt;&lt;label for="r32"&gt;&lt;img src = "./Res/IMGS/r32.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r32" value = "r32" id = "r32"&lt;?php if(isset($_POST['r32'])){echo "checked";}?&gt;/&gt;&lt;label for="r32"&gt;&lt;img src = "./Res/IMGS/r32.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -3673,7 +4075,7 @@
         <v>r33</v>
       </c>
       <c r="Q33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R33" t="str">
         <f t="shared" si="2"/>
@@ -3686,32 +4088,44 @@
         <f t="shared" si="2"/>
         <v>r33</v>
       </c>
-      <c r="U33" t="s">
-        <v>135</v>
-      </c>
-      <c r="V33" t="str">
+      <c r="U33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W33" s="4">
+        <v>33</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z33" t="str">
         <f t="shared" si="3"/>
         <v>r33</v>
       </c>
-      <c r="W33" t="s">
+      <c r="AA33" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB33" t="s">
         <v>136</v>
       </c>
-      <c r="X33" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y33" t="str">
+      <c r="AC33" t="str">
         <f t="shared" si="4"/>
         <v>r33</v>
       </c>
-      <c r="Z33" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB33" t="str">
+      <c r="AD33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF33" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r33" value = "r33" id = "r33"/&gt;&lt;label for="r33"&gt;&lt;img src = "./Res/IMGS/r33.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r33" value = "r33" id = "r33"&lt;?php if(isset($_POST['r33'])){echo "checked";}?&gt;/&gt;&lt;label for="r33"&gt;&lt;img src = "./Res/IMGS/r33.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -3757,7 +4171,7 @@
         <v>r34</v>
       </c>
       <c r="Q34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R34" t="str">
         <f t="shared" si="2"/>
@@ -3770,32 +4184,44 @@
         <f t="shared" si="2"/>
         <v>r34</v>
       </c>
-      <c r="U34" t="s">
-        <v>135</v>
-      </c>
-      <c r="V34" t="str">
+      <c r="U34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W34" s="4">
+        <v>34</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z34" t="str">
         <f t="shared" si="3"/>
         <v>r34</v>
       </c>
-      <c r="W34" t="s">
+      <c r="AA34" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB34" t="s">
         <v>136</v>
       </c>
-      <c r="X34" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y34" t="str">
+      <c r="AC34" t="str">
         <f t="shared" si="4"/>
         <v>r34</v>
       </c>
-      <c r="Z34" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB34" t="str">
+      <c r="AD34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF34" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r34" value = "r34" id = "r34"/&gt;&lt;label for="r34"&gt;&lt;img src = "./Res/IMGS/r34.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r34" value = "r34" id = "r34"&lt;?php if(isset($_POST['r34'])){echo "checked";}?&gt;/&gt;&lt;label for="r34"&gt;&lt;img src = "./Res/IMGS/r34.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -3841,7 +4267,7 @@
         <v>r35</v>
       </c>
       <c r="Q35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R35" t="str">
         <f t="shared" si="2"/>
@@ -3854,32 +4280,44 @@
         <f t="shared" si="2"/>
         <v>r35</v>
       </c>
-      <c r="U35" t="s">
-        <v>135</v>
-      </c>
-      <c r="V35" t="str">
+      <c r="U35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W35" s="4">
+        <v>35</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z35" t="str">
         <f t="shared" si="3"/>
         <v>r35</v>
       </c>
-      <c r="W35" t="s">
+      <c r="AA35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB35" t="s">
         <v>136</v>
       </c>
-      <c r="X35" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y35" t="str">
+      <c r="AC35" t="str">
         <f t="shared" si="4"/>
         <v>r35</v>
       </c>
-      <c r="Z35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB35" t="str">
+      <c r="AD35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF35" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r35" value = "r35" id = "r35"/&gt;&lt;label for="r35"&gt;&lt;img src = "./Res/IMGS/r35.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r35" value = "r35" id = "r35"&lt;?php if(isset($_POST['r35'])){echo "checked";}?&gt;/&gt;&lt;label for="r35"&gt;&lt;img src = "./Res/IMGS/r35.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -3925,7 +4363,7 @@
         <v>r36</v>
       </c>
       <c r="Q36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R36" t="str">
         <f t="shared" si="2"/>
@@ -3938,32 +4376,44 @@
         <f t="shared" si="2"/>
         <v>r36</v>
       </c>
-      <c r="U36" t="s">
-        <v>135</v>
-      </c>
-      <c r="V36" t="str">
+      <c r="U36" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W36" s="4">
+        <v>36</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z36" t="str">
         <f t="shared" si="3"/>
         <v>r36</v>
       </c>
-      <c r="W36" t="s">
+      <c r="AA36" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB36" t="s">
         <v>136</v>
       </c>
-      <c r="X36" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y36" t="str">
+      <c r="AC36" t="str">
         <f t="shared" si="4"/>
         <v>r36</v>
       </c>
-      <c r="Z36" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB36" t="str">
+      <c r="AD36" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF36" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r36" value = "r36" id = "r36"/&gt;&lt;label for="r36"&gt;&lt;img src = "./Res/IMGS/r36.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r36" value = "r36" id = "r36"&lt;?php if(isset($_POST['r36'])){echo "checked";}?&gt;/&gt;&lt;label for="r36"&gt;&lt;img src = "./Res/IMGS/r36.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -4009,7 +4459,7 @@
         <v>r37</v>
       </c>
       <c r="Q37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R37" t="str">
         <f t="shared" si="2"/>
@@ -4022,32 +4472,44 @@
         <f t="shared" si="2"/>
         <v>r37</v>
       </c>
-      <c r="U37" t="s">
-        <v>135</v>
-      </c>
-      <c r="V37" t="str">
+      <c r="U37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W37" s="4">
+        <v>37</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z37" t="str">
         <f t="shared" si="3"/>
         <v>r37</v>
       </c>
-      <c r="W37" t="s">
+      <c r="AA37" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB37" t="s">
         <v>136</v>
       </c>
-      <c r="X37" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y37" t="str">
+      <c r="AC37" t="str">
         <f t="shared" si="4"/>
         <v>r37</v>
       </c>
-      <c r="Z37" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB37" t="str">
+      <c r="AD37" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF37" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r37" value = "r37" id = "r37"/&gt;&lt;label for="r37"&gt;&lt;img src = "./Res/IMGS/r37.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r37" value = "r37" id = "r37"&lt;?php if(isset($_POST['r37'])){echo "checked";}?&gt;/&gt;&lt;label for="r37"&gt;&lt;img src = "./Res/IMGS/r37.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -4093,7 +4555,7 @@
         <v>r38</v>
       </c>
       <c r="Q38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R38" t="str">
         <f t="shared" si="2"/>
@@ -4106,32 +4568,44 @@
         <f t="shared" si="2"/>
         <v>r38</v>
       </c>
-      <c r="U38" t="s">
-        <v>135</v>
-      </c>
-      <c r="V38" t="str">
+      <c r="U38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W38" s="4">
+        <v>38</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z38" t="str">
         <f t="shared" si="3"/>
         <v>r38</v>
       </c>
-      <c r="W38" t="s">
+      <c r="AA38" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB38" t="s">
         <v>136</v>
       </c>
-      <c r="X38" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y38" t="str">
+      <c r="AC38" t="str">
         <f t="shared" si="4"/>
         <v>r38</v>
       </c>
-      <c r="Z38" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB38" t="str">
+      <c r="AD38" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF38" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r38" value = "r38" id = "r38"/&gt;&lt;label for="r38"&gt;&lt;img src = "./Res/IMGS/r38.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r38" value = "r38" id = "r38"&lt;?php if(isset($_POST['r38'])){echo "checked";}?&gt;/&gt;&lt;label for="r38"&gt;&lt;img src = "./Res/IMGS/r38.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -4177,7 +4651,7 @@
         <v>r39</v>
       </c>
       <c r="Q39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R39" t="str">
         <f t="shared" si="2"/>
@@ -4190,32 +4664,44 @@
         <f t="shared" si="2"/>
         <v>r39</v>
       </c>
-      <c r="U39" t="s">
-        <v>135</v>
-      </c>
-      <c r="V39" t="str">
+      <c r="U39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W39" s="4">
+        <v>39</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z39" t="str">
         <f t="shared" si="3"/>
         <v>r39</v>
       </c>
-      <c r="W39" t="s">
+      <c r="AA39" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB39" t="s">
         <v>136</v>
       </c>
-      <c r="X39" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y39" t="str">
+      <c r="AC39" t="str">
         <f t="shared" si="4"/>
         <v>r39</v>
       </c>
-      <c r="Z39" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB39" t="str">
+      <c r="AD39" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF39" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r39" value = "r39" id = "r39"/&gt;&lt;label for="r39"&gt;&lt;img src = "./Res/IMGS/r39.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r39" value = "r39" id = "r39"&lt;?php if(isset($_POST['r39'])){echo "checked";}?&gt;/&gt;&lt;label for="r39"&gt;&lt;img src = "./Res/IMGS/r39.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -4261,7 +4747,7 @@
         <v>r40</v>
       </c>
       <c r="Q40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R40" t="str">
         <f t="shared" si="2"/>
@@ -4274,32 +4760,44 @@
         <f t="shared" si="2"/>
         <v>r40</v>
       </c>
-      <c r="U40" t="s">
-        <v>135</v>
-      </c>
-      <c r="V40" t="str">
+      <c r="U40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W40" s="4">
+        <v>40</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z40" t="str">
         <f t="shared" si="3"/>
         <v>r40</v>
       </c>
-      <c r="W40" t="s">
+      <c r="AA40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB40" t="s">
         <v>136</v>
       </c>
-      <c r="X40" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y40" t="str">
+      <c r="AC40" t="str">
         <f t="shared" si="4"/>
         <v>r40</v>
       </c>
-      <c r="Z40" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB40" t="str">
+      <c r="AD40" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r40" value = "r40" id = "r40"/&gt;&lt;label for="r40"&gt;&lt;img src = "./Res/IMGS/r40.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r40" value = "r40" id = "r40"&lt;?php if(isset($_POST['r40'])){echo "checked";}?&gt;/&gt;&lt;label for="r40"&gt;&lt;img src = "./Res/IMGS/r40.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -4345,7 +4843,7 @@
         <v>r41</v>
       </c>
       <c r="Q41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R41" t="str">
         <f t="shared" si="2"/>
@@ -4358,32 +4856,44 @@
         <f t="shared" si="2"/>
         <v>r41</v>
       </c>
-      <c r="U41" t="s">
-        <v>135</v>
-      </c>
-      <c r="V41" t="str">
+      <c r="U41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W41" s="4">
+        <v>41</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z41" t="str">
         <f t="shared" si="3"/>
         <v>r41</v>
       </c>
-      <c r="W41" t="s">
+      <c r="AA41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB41" t="s">
         <v>136</v>
       </c>
-      <c r="X41" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y41" t="str">
+      <c r="AC41" t="str">
         <f t="shared" si="4"/>
         <v>r41</v>
       </c>
-      <c r="Z41" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB41" t="str">
+      <c r="AD41" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF41" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r41" value = "r41" id = "r41"/&gt;&lt;label for="r41"&gt;&lt;img src = "./Res/IMGS/r41.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r41" value = "r41" id = "r41"&lt;?php if(isset($_POST['r41'])){echo "checked";}?&gt;/&gt;&lt;label for="r41"&gt;&lt;img src = "./Res/IMGS/r41.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -4429,7 +4939,7 @@
         <v>r42</v>
       </c>
       <c r="Q42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R42" t="str">
         <f t="shared" si="2"/>
@@ -4442,32 +4952,44 @@
         <f t="shared" si="2"/>
         <v>r42</v>
       </c>
-      <c r="U42" t="s">
-        <v>135</v>
-      </c>
-      <c r="V42" t="str">
+      <c r="U42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W42" s="4">
+        <v>42</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z42" t="str">
         <f t="shared" si="3"/>
         <v>r42</v>
       </c>
-      <c r="W42" t="s">
+      <c r="AA42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB42" t="s">
         <v>136</v>
       </c>
-      <c r="X42" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y42" t="str">
+      <c r="AC42" t="str">
         <f t="shared" si="4"/>
         <v>r42</v>
       </c>
-      <c r="Z42" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB42" t="str">
+      <c r="AD42" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF42" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r42" value = "r42" id = "r42"/&gt;&lt;label for="r42"&gt;&lt;img src = "./Res/IMGS/r42.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r42" value = "r42" id = "r42"&lt;?php if(isset($_POST['r42'])){echo "checked";}?&gt;/&gt;&lt;label for="r42"&gt;&lt;img src = "./Res/IMGS/r42.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -4513,7 +5035,7 @@
         <v>r43</v>
       </c>
       <c r="Q43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R43" t="str">
         <f t="shared" si="2"/>
@@ -4526,32 +5048,44 @@
         <f t="shared" si="2"/>
         <v>r43</v>
       </c>
-      <c r="U43" t="s">
-        <v>135</v>
-      </c>
-      <c r="V43" t="str">
+      <c r="U43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W43" s="4">
+        <v>43</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z43" t="str">
         <f t="shared" si="3"/>
         <v>r43</v>
       </c>
-      <c r="W43" t="s">
+      <c r="AA43" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB43" t="s">
         <v>136</v>
       </c>
-      <c r="X43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y43" t="str">
+      <c r="AC43" t="str">
         <f t="shared" si="4"/>
         <v>r43</v>
       </c>
-      <c r="Z43" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB43" t="str">
+      <c r="AD43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF43" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r43" value = "r43" id = "r43"/&gt;&lt;label for="r43"&gt;&lt;img src = "./Res/IMGS/r43.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r43" value = "r43" id = "r43"&lt;?php if(isset($_POST['r43'])){echo "checked";}?&gt;/&gt;&lt;label for="r43"&gt;&lt;img src = "./Res/IMGS/r43.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -4597,7 +5131,7 @@
         <v>r44</v>
       </c>
       <c r="Q44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R44" t="str">
         <f t="shared" si="2"/>
@@ -4610,32 +5144,44 @@
         <f t="shared" si="2"/>
         <v>r44</v>
       </c>
-      <c r="U44" t="s">
-        <v>135</v>
-      </c>
-      <c r="V44" t="str">
+      <c r="U44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W44" s="4">
+        <v>44</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z44" t="str">
         <f t="shared" si="3"/>
         <v>r44</v>
       </c>
-      <c r="W44" t="s">
+      <c r="AA44" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB44" t="s">
         <v>136</v>
       </c>
-      <c r="X44" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y44" t="str">
+      <c r="AC44" t="str">
         <f t="shared" si="4"/>
         <v>r44</v>
       </c>
-      <c r="Z44" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB44" t="str">
+      <c r="AD44" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF44" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r44" value = "r44" id = "r44"/&gt;&lt;label for="r44"&gt;&lt;img src = "./Res/IMGS/r44.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r44" value = "r44" id = "r44"&lt;?php if(isset($_POST['r44'])){echo "checked";}?&gt;/&gt;&lt;label for="r44"&gt;&lt;img src = "./Res/IMGS/r44.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -4681,7 +5227,7 @@
         <v>r45</v>
       </c>
       <c r="Q45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R45" t="str">
         <f t="shared" si="2"/>
@@ -4694,32 +5240,44 @@
         <f t="shared" si="2"/>
         <v>r45</v>
       </c>
-      <c r="U45" t="s">
-        <v>135</v>
-      </c>
-      <c r="V45" t="str">
+      <c r="U45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W45" s="4">
+        <v>45</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z45" t="str">
         <f t="shared" si="3"/>
         <v>r45</v>
       </c>
-      <c r="W45" t="s">
+      <c r="AA45" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB45" t="s">
         <v>136</v>
       </c>
-      <c r="X45" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y45" t="str">
+      <c r="AC45" t="str">
         <f t="shared" si="4"/>
         <v>r45</v>
       </c>
-      <c r="Z45" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB45" t="str">
+      <c r="AD45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF45" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r45" value = "r45" id = "r45"/&gt;&lt;label for="r45"&gt;&lt;img src = "./Res/IMGS/r45.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r45" value = "r45" id = "r45"&lt;?php if(isset($_POST['r45'])){echo "checked";}?&gt;/&gt;&lt;label for="r45"&gt;&lt;img src = "./Res/IMGS/r45.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -4765,7 +5323,7 @@
         <v>r46</v>
       </c>
       <c r="Q46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R46" t="str">
         <f t="shared" si="2"/>
@@ -4778,32 +5336,44 @@
         <f t="shared" si="2"/>
         <v>r46</v>
       </c>
-      <c r="U46" t="s">
-        <v>135</v>
-      </c>
-      <c r="V46" t="str">
+      <c r="U46" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W46" s="4">
+        <v>46</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z46" t="str">
         <f t="shared" si="3"/>
         <v>r46</v>
       </c>
-      <c r="W46" t="s">
+      <c r="AA46" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB46" t="s">
         <v>136</v>
       </c>
-      <c r="X46" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y46" t="str">
+      <c r="AC46" t="str">
         <f t="shared" si="4"/>
         <v>r46</v>
       </c>
-      <c r="Z46" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB46" t="str">
+      <c r="AD46" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF46" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r46" value = "r46" id = "r46"/&gt;&lt;label for="r46"&gt;&lt;img src = "./Res/IMGS/r46.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r46" value = "r46" id = "r46"&lt;?php if(isset($_POST['r46'])){echo "checked";}?&gt;/&gt;&lt;label for="r46"&gt;&lt;img src = "./Res/IMGS/r46.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -4849,7 +5419,7 @@
         <v>r47</v>
       </c>
       <c r="Q47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R47" t="str">
         <f t="shared" si="2"/>
@@ -4862,32 +5432,44 @@
         <f t="shared" si="2"/>
         <v>r47</v>
       </c>
-      <c r="U47" t="s">
-        <v>135</v>
-      </c>
-      <c r="V47" t="str">
+      <c r="U47" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W47" s="4">
+        <v>47</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z47" t="str">
         <f t="shared" si="3"/>
         <v>r47</v>
       </c>
-      <c r="W47" t="s">
+      <c r="AA47" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB47" t="s">
         <v>136</v>
       </c>
-      <c r="X47" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y47" t="str">
+      <c r="AC47" t="str">
         <f t="shared" si="4"/>
         <v>r47</v>
       </c>
-      <c r="Z47" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB47" t="str">
+      <c r="AD47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF47" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r47" value = "r47" id = "r47"/&gt;&lt;label for="r47"&gt;&lt;img src = "./Res/IMGS/r47.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r47" value = "r47" id = "r47"&lt;?php if(isset($_POST['r47'])){echo "checked";}?&gt;/&gt;&lt;label for="r47"&gt;&lt;img src = "./Res/IMGS/r47.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -4933,7 +5515,7 @@
         <v>r48</v>
       </c>
       <c r="Q48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R48" t="str">
         <f t="shared" si="2"/>
@@ -4946,32 +5528,44 @@
         <f t="shared" si="2"/>
         <v>r48</v>
       </c>
-      <c r="U48" t="s">
-        <v>135</v>
-      </c>
-      <c r="V48" t="str">
+      <c r="U48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W48" s="4">
+        <v>48</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z48" t="str">
         <f t="shared" si="3"/>
         <v>r48</v>
       </c>
-      <c r="W48" t="s">
+      <c r="AA48" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB48" t="s">
         <v>136</v>
       </c>
-      <c r="X48" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y48" t="str">
+      <c r="AC48" t="str">
         <f t="shared" si="4"/>
         <v>r48</v>
       </c>
-      <c r="Z48" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB48" t="str">
+      <c r="AD48" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF48" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r48" value = "r48" id = "r48"/&gt;&lt;label for="r48"&gt;&lt;img src = "./Res/IMGS/r48.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r48" value = "r48" id = "r48"&lt;?php if(isset($_POST['r48'])){echo "checked";}?&gt;/&gt;&lt;label for="r48"&gt;&lt;img src = "./Res/IMGS/r48.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -5017,7 +5611,7 @@
         <v>r49</v>
       </c>
       <c r="Q49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R49" t="str">
         <f t="shared" si="2"/>
@@ -5030,32 +5624,44 @@
         <f t="shared" si="2"/>
         <v>r49</v>
       </c>
-      <c r="U49" t="s">
-        <v>135</v>
-      </c>
-      <c r="V49" t="str">
+      <c r="U49" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W49" s="4">
+        <v>49</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z49" t="str">
         <f t="shared" si="3"/>
         <v>r49</v>
       </c>
-      <c r="W49" t="s">
+      <c r="AA49" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB49" t="s">
         <v>136</v>
       </c>
-      <c r="X49" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y49" t="str">
+      <c r="AC49" t="str">
         <f t="shared" si="4"/>
         <v>r49</v>
       </c>
-      <c r="Z49" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB49" t="str">
+      <c r="AD49" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF49" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r49" value = "r49" id = "r49"/&gt;&lt;label for="r49"&gt;&lt;img src = "./Res/IMGS/r49.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r49" value = "r49" id = "r49"&lt;?php if(isset($_POST['r49'])){echo "checked";}?&gt;/&gt;&lt;label for="r49"&gt;&lt;img src = "./Res/IMGS/r49.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -5101,7 +5707,7 @@
         <v>r50</v>
       </c>
       <c r="Q50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R50" t="str">
         <f t="shared" si="2"/>
@@ -5114,32 +5720,44 @@
         <f t="shared" si="2"/>
         <v>r50</v>
       </c>
-      <c r="U50" t="s">
-        <v>135</v>
-      </c>
-      <c r="V50" t="str">
+      <c r="U50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W50" s="4">
+        <v>50</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z50" t="str">
         <f t="shared" si="3"/>
         <v>r50</v>
       </c>
-      <c r="W50" t="s">
+      <c r="AA50" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB50" t="s">
         <v>136</v>
       </c>
-      <c r="X50" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y50" t="str">
+      <c r="AC50" t="str">
         <f t="shared" si="4"/>
         <v>r50</v>
       </c>
-      <c r="Z50" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB50" t="str">
+      <c r="AD50" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF50" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r50" value = "r50" id = "r50"/&gt;&lt;label for="r50"&gt;&lt;img src = "./Res/IMGS/r50.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r50" value = "r50" id = "r50"&lt;?php if(isset($_POST['r50'])){echo "checked";}?&gt;/&gt;&lt;label for="r50"&gt;&lt;img src = "./Res/IMGS/r50.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -5185,7 +5803,7 @@
         <v>r51</v>
       </c>
       <c r="Q51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R51" t="str">
         <f t="shared" si="2"/>
@@ -5198,32 +5816,44 @@
         <f t="shared" si="2"/>
         <v>r51</v>
       </c>
-      <c r="U51" t="s">
-        <v>135</v>
-      </c>
-      <c r="V51" t="str">
+      <c r="U51" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W51" s="4">
+        <v>51</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z51" t="str">
         <f t="shared" si="3"/>
         <v>r51</v>
       </c>
-      <c r="W51" t="s">
+      <c r="AA51" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB51" t="s">
         <v>136</v>
       </c>
-      <c r="X51" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y51" t="str">
+      <c r="AC51" t="str">
         <f t="shared" si="4"/>
         <v>r51</v>
       </c>
-      <c r="Z51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB51" t="str">
+      <c r="AD51" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF51" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r51" value = "r51" id = "r51"/&gt;&lt;label for="r51"&gt;&lt;img src = "./Res/IMGS/r51.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r51" value = "r51" id = "r51"&lt;?php if(isset($_POST['r51'])){echo "checked";}?&gt;/&gt;&lt;label for="r51"&gt;&lt;img src = "./Res/IMGS/r51.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -5269,7 +5899,7 @@
         <v>r52</v>
       </c>
       <c r="Q52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R52" t="str">
         <f t="shared" si="2"/>
@@ -5282,32 +5912,44 @@
         <f t="shared" si="2"/>
         <v>r52</v>
       </c>
-      <c r="U52" t="s">
-        <v>135</v>
-      </c>
-      <c r="V52" t="str">
+      <c r="U52" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W52" s="4">
+        <v>52</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z52" t="str">
         <f t="shared" si="3"/>
         <v>r52</v>
       </c>
-      <c r="W52" t="s">
+      <c r="AA52" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB52" t="s">
         <v>136</v>
       </c>
-      <c r="X52" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y52" t="str">
+      <c r="AC52" t="str">
         <f t="shared" si="4"/>
         <v>r52</v>
       </c>
-      <c r="Z52" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB52" t="str">
+      <c r="AD52" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF52" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r52" value = "r52" id = "r52"/&gt;&lt;label for="r52"&gt;&lt;img src = "./Res/IMGS/r52.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r52" value = "r52" id = "r52"&lt;?php if(isset($_POST['r52'])){echo "checked";}?&gt;/&gt;&lt;label for="r52"&gt;&lt;img src = "./Res/IMGS/r52.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -5353,7 +5995,7 @@
         <v>r53</v>
       </c>
       <c r="Q53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R53" t="str">
         <f t="shared" si="2"/>
@@ -5366,32 +6008,44 @@
         <f t="shared" si="2"/>
         <v>r53</v>
       </c>
-      <c r="U53" t="s">
-        <v>135</v>
-      </c>
-      <c r="V53" t="str">
+      <c r="U53" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W53" s="4">
+        <v>53</v>
+      </c>
+      <c r="X53" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z53" t="str">
         <f t="shared" si="3"/>
         <v>r53</v>
       </c>
-      <c r="W53" t="s">
+      <c r="AA53" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB53" t="s">
         <v>136</v>
       </c>
-      <c r="X53" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y53" t="str">
+      <c r="AC53" t="str">
         <f t="shared" si="4"/>
         <v>r53</v>
       </c>
-      <c r="Z53" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB53" t="str">
+      <c r="AD53" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF53" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r53" value = "r53" id = "r53"/&gt;&lt;label for="r53"&gt;&lt;img src = "./Res/IMGS/r53.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r53" value = "r53" id = "r53"&lt;?php if(isset($_POST['r53'])){echo "checked";}?&gt;/&gt;&lt;label for="r53"&gt;&lt;img src = "./Res/IMGS/r53.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -5437,7 +6091,7 @@
         <v>r54</v>
       </c>
       <c r="Q54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R54" t="str">
         <f t="shared" si="2"/>
@@ -5450,32 +6104,44 @@
         <f t="shared" si="2"/>
         <v>r54</v>
       </c>
-      <c r="U54" t="s">
-        <v>135</v>
-      </c>
-      <c r="V54" t="str">
+      <c r="U54" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W54" s="4">
+        <v>54</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z54" t="str">
         <f t="shared" si="3"/>
         <v>r54</v>
       </c>
-      <c r="W54" t="s">
+      <c r="AA54" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB54" t="s">
         <v>136</v>
       </c>
-      <c r="X54" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y54" t="str">
+      <c r="AC54" t="str">
         <f t="shared" si="4"/>
         <v>r54</v>
       </c>
-      <c r="Z54" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB54" t="str">
+      <c r="AD54" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF54" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r54" value = "r54" id = "r54"/&gt;&lt;label for="r54"&gt;&lt;img src = "./Res/IMGS/r54.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r54" value = "r54" id = "r54"&lt;?php if(isset($_POST['r54'])){echo "checked";}?&gt;/&gt;&lt;label for="r54"&gt;&lt;img src = "./Res/IMGS/r54.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -5521,7 +6187,7 @@
         <v>r55</v>
       </c>
       <c r="Q55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R55" t="str">
         <f t="shared" si="2"/>
@@ -5534,32 +6200,44 @@
         <f t="shared" si="2"/>
         <v>r55</v>
       </c>
-      <c r="U55" t="s">
-        <v>135</v>
-      </c>
-      <c r="V55" t="str">
+      <c r="U55" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W55" s="4">
+        <v>55</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z55" t="str">
         <f t="shared" si="3"/>
         <v>r55</v>
       </c>
-      <c r="W55" t="s">
+      <c r="AA55" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB55" t="s">
         <v>136</v>
       </c>
-      <c r="X55" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y55" t="str">
+      <c r="AC55" t="str">
         <f t="shared" si="4"/>
         <v>r55</v>
       </c>
-      <c r="Z55" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB55" t="str">
+      <c r="AD55" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF55" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r55" value = "r55" id = "r55"/&gt;&lt;label for="r55"&gt;&lt;img src = "./Res/IMGS/r55.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r55" value = "r55" id = "r55"&lt;?php if(isset($_POST['r55'])){echo "checked";}?&gt;/&gt;&lt;label for="r55"&gt;&lt;img src = "./Res/IMGS/r55.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -5605,7 +6283,7 @@
         <v>r56</v>
       </c>
       <c r="Q56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R56" t="str">
         <f t="shared" si="2"/>
@@ -5618,32 +6296,44 @@
         <f t="shared" si="2"/>
         <v>r56</v>
       </c>
-      <c r="U56" t="s">
-        <v>135</v>
-      </c>
-      <c r="V56" t="str">
+      <c r="U56" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W56" s="4">
+        <v>56</v>
+      </c>
+      <c r="X56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z56" t="str">
         <f t="shared" si="3"/>
         <v>r56</v>
       </c>
-      <c r="W56" t="s">
+      <c r="AA56" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB56" t="s">
         <v>136</v>
       </c>
-      <c r="X56" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y56" t="str">
+      <c r="AC56" t="str">
         <f t="shared" si="4"/>
         <v>r56</v>
       </c>
-      <c r="Z56" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB56" t="str">
+      <c r="AD56" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF56" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r56" value = "r56" id = "r56"/&gt;&lt;label for="r56"&gt;&lt;img src = "./Res/IMGS/r56.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r56" value = "r56" id = "r56"&lt;?php if(isset($_POST['r56'])){echo "checked";}?&gt;/&gt;&lt;label for="r56"&gt;&lt;img src = "./Res/IMGS/r56.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -5689,7 +6379,7 @@
         <v>r57</v>
       </c>
       <c r="Q57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R57" t="str">
         <f t="shared" si="2"/>
@@ -5702,32 +6392,44 @@
         <f t="shared" si="2"/>
         <v>r57</v>
       </c>
-      <c r="U57" t="s">
-        <v>135</v>
-      </c>
-      <c r="V57" t="str">
+      <c r="U57" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W57" s="4">
+        <v>57</v>
+      </c>
+      <c r="X57" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z57" t="str">
         <f t="shared" si="3"/>
         <v>r57</v>
       </c>
-      <c r="W57" t="s">
+      <c r="AA57" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB57" t="s">
         <v>136</v>
       </c>
-      <c r="X57" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y57" t="str">
+      <c r="AC57" t="str">
         <f t="shared" si="4"/>
         <v>r57</v>
       </c>
-      <c r="Z57" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB57" t="str">
+      <c r="AD57" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF57" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r57" value = "r57" id = "r57"/&gt;&lt;label for="r57"&gt;&lt;img src = "./Res/IMGS/r57.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r57" value = "r57" id = "r57"&lt;?php if(isset($_POST['r57'])){echo "checked";}?&gt;/&gt;&lt;label for="r57"&gt;&lt;img src = "./Res/IMGS/r57.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -5773,7 +6475,7 @@
         <v>r58</v>
       </c>
       <c r="Q58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R58" t="str">
         <f t="shared" si="2"/>
@@ -5786,32 +6488,44 @@
         <f t="shared" si="2"/>
         <v>r58</v>
       </c>
-      <c r="U58" t="s">
-        <v>135</v>
-      </c>
-      <c r="V58" t="str">
+      <c r="U58" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W58" s="4">
+        <v>58</v>
+      </c>
+      <c r="X58" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z58" t="str">
         <f t="shared" si="3"/>
         <v>r58</v>
       </c>
-      <c r="W58" t="s">
+      <c r="AA58" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB58" t="s">
         <v>136</v>
       </c>
-      <c r="X58" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y58" t="str">
+      <c r="AC58" t="str">
         <f t="shared" si="4"/>
         <v>r58</v>
       </c>
-      <c r="Z58" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB58" t="str">
+      <c r="AD58" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF58" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r58" value = "r58" id = "r58"/&gt;&lt;label for="r58"&gt;&lt;img src = "./Res/IMGS/r58.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r58" value = "r58" id = "r58"&lt;?php if(isset($_POST['r58'])){echo "checked";}?&gt;/&gt;&lt;label for="r58"&gt;&lt;img src = "./Res/IMGS/r58.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -5857,7 +6571,7 @@
         <v>r59</v>
       </c>
       <c r="Q59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R59" t="str">
         <f t="shared" si="2"/>
@@ -5870,32 +6584,44 @@
         <f t="shared" si="2"/>
         <v>r59</v>
       </c>
-      <c r="U59" t="s">
-        <v>135</v>
-      </c>
-      <c r="V59" t="str">
+      <c r="U59" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W59" s="4">
+        <v>59</v>
+      </c>
+      <c r="X59" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z59" t="str">
         <f t="shared" si="3"/>
         <v>r59</v>
       </c>
-      <c r="W59" t="s">
+      <c r="AA59" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB59" t="s">
         <v>136</v>
       </c>
-      <c r="X59" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y59" t="str">
+      <c r="AC59" t="str">
         <f t="shared" si="4"/>
         <v>r59</v>
       </c>
-      <c r="Z59" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB59" t="str">
+      <c r="AD59" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF59" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r59" value = "r59" id = "r59"/&gt;&lt;label for="r59"&gt;&lt;img src = "./Res/IMGS/r59.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r59" value = "r59" id = "r59"&lt;?php if(isset($_POST['r59'])){echo "checked";}?&gt;/&gt;&lt;label for="r59"&gt;&lt;img src = "./Res/IMGS/r59.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -5941,7 +6667,7 @@
         <v>r60</v>
       </c>
       <c r="Q60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R60" t="str">
         <f t="shared" si="2"/>
@@ -5954,32 +6680,44 @@
         <f t="shared" si="2"/>
         <v>r60</v>
       </c>
-      <c r="U60" t="s">
-        <v>135</v>
-      </c>
-      <c r="V60" t="str">
+      <c r="U60" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W60" s="4">
+        <v>60</v>
+      </c>
+      <c r="X60" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z60" t="str">
         <f t="shared" si="3"/>
         <v>r60</v>
       </c>
-      <c r="W60" t="s">
+      <c r="AA60" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB60" t="s">
         <v>136</v>
       </c>
-      <c r="X60" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y60" t="str">
+      <c r="AC60" t="str">
         <f t="shared" si="4"/>
         <v>r60</v>
       </c>
-      <c r="Z60" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB60" t="str">
+      <c r="AD60" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF60" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r60" value = "r60" id = "r60"/&gt;&lt;label for="r60"&gt;&lt;img src = "./Res/IMGS/r60.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r60" value = "r60" id = "r60"&lt;?php if(isset($_POST['r60'])){echo "checked";}?&gt;/&gt;&lt;label for="r60"&gt;&lt;img src = "./Res/IMGS/r60.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -6025,7 +6763,7 @@
         <v>r61</v>
       </c>
       <c r="Q61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R61" t="str">
         <f t="shared" si="2"/>
@@ -6038,32 +6776,44 @@
         <f t="shared" si="2"/>
         <v>r61</v>
       </c>
-      <c r="U61" t="s">
-        <v>135</v>
-      </c>
-      <c r="V61" t="str">
+      <c r="U61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W61" s="4">
+        <v>61</v>
+      </c>
+      <c r="X61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z61" t="str">
         <f t="shared" si="3"/>
         <v>r61</v>
       </c>
-      <c r="W61" t="s">
+      <c r="AA61" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB61" t="s">
         <v>136</v>
       </c>
-      <c r="X61" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y61" t="str">
+      <c r="AC61" t="str">
         <f t="shared" si="4"/>
         <v>r61</v>
       </c>
-      <c r="Z61" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB61" t="str">
+      <c r="AD61" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF61" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r61" value = "r61" id = "r61"/&gt;&lt;label for="r61"&gt;&lt;img src = "./Res/IMGS/r61.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r61" value = "r61" id = "r61"&lt;?php if(isset($_POST['r61'])){echo "checked";}?&gt;/&gt;&lt;label for="r61"&gt;&lt;img src = "./Res/IMGS/r61.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -6109,7 +6859,7 @@
         <v>r62</v>
       </c>
       <c r="Q62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R62" t="str">
         <f t="shared" si="2"/>
@@ -6122,32 +6872,44 @@
         <f t="shared" si="2"/>
         <v>r62</v>
       </c>
-      <c r="U62" t="s">
-        <v>135</v>
-      </c>
-      <c r="V62" t="str">
+      <c r="U62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V62" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W62" s="4">
+        <v>62</v>
+      </c>
+      <c r="X62" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z62" t="str">
         <f t="shared" si="3"/>
         <v>r62</v>
       </c>
-      <c r="W62" t="s">
+      <c r="AA62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB62" t="s">
         <v>136</v>
       </c>
-      <c r="X62" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y62" t="str">
+      <c r="AC62" t="str">
         <f t="shared" si="4"/>
         <v>r62</v>
       </c>
-      <c r="Z62" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB62" t="str">
+      <c r="AD62" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF62" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r62" value = "r62" id = "r62"/&gt;&lt;label for="r62"&gt;&lt;img src = "./Res/IMGS/r62.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r62" value = "r62" id = "r62"&lt;?php if(isset($_POST['r62'])){echo "checked";}?&gt;/&gt;&lt;label for="r62"&gt;&lt;img src = "./Res/IMGS/r62.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -6193,7 +6955,7 @@
         <v>r63</v>
       </c>
       <c r="Q63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R63" t="str">
         <f t="shared" si="2"/>
@@ -6206,32 +6968,44 @@
         <f t="shared" si="2"/>
         <v>r63</v>
       </c>
-      <c r="U63" t="s">
-        <v>135</v>
-      </c>
-      <c r="V63" t="str">
+      <c r="U63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W63" s="4">
+        <v>63</v>
+      </c>
+      <c r="X63" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z63" t="str">
         <f t="shared" si="3"/>
         <v>r63</v>
       </c>
-      <c r="W63" t="s">
+      <c r="AA63" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB63" t="s">
         <v>136</v>
       </c>
-      <c r="X63" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y63" t="str">
+      <c r="AC63" t="str">
         <f t="shared" si="4"/>
         <v>r63</v>
       </c>
-      <c r="Z63" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB63" t="str">
+      <c r="AD63" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF63" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r63" value = "r63" id = "r63"/&gt;&lt;label for="r63"&gt;&lt;img src = "./Res/IMGS/r63.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r63" value = "r63" id = "r63"&lt;?php if(isset($_POST['r63'])){echo "checked";}?&gt;/&gt;&lt;label for="r63"&gt;&lt;img src = "./Res/IMGS/r63.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>120</v>
       </c>
@@ -6277,7 +7051,7 @@
         <v>r64</v>
       </c>
       <c r="Q64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R64" t="str">
         <f t="shared" si="2"/>
@@ -6290,32 +7064,44 @@
         <f t="shared" si="2"/>
         <v>r64</v>
       </c>
-      <c r="U64" t="s">
-        <v>135</v>
-      </c>
-      <c r="V64" t="str">
+      <c r="U64" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V64" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W64" s="4">
+        <v>64</v>
+      </c>
+      <c r="X64" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z64" t="str">
         <f t="shared" si="3"/>
         <v>r64</v>
       </c>
-      <c r="W64" t="s">
+      <c r="AA64" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB64" t="s">
         <v>136</v>
       </c>
-      <c r="X64" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y64" t="str">
+      <c r="AC64" t="str">
         <f t="shared" si="4"/>
         <v>r64</v>
       </c>
-      <c r="Z64" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB64" t="str">
+      <c r="AD64" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF64" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r64" value = "r64" id = "r64"/&gt;&lt;label for="r64"&gt;&lt;img src = "./Res/IMGS/r64.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r64" value = "r64" id = "r64"&lt;?php if(isset($_POST['r64'])){echo "checked";}?&gt;/&gt;&lt;label for="r64"&gt;&lt;img src = "./Res/IMGS/r64.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>120</v>
       </c>
@@ -6361,7 +7147,7 @@
         <v>r65</v>
       </c>
       <c r="Q65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R65" t="str">
         <f t="shared" si="2"/>
@@ -6374,32 +7160,44 @@
         <f t="shared" si="2"/>
         <v>r65</v>
       </c>
-      <c r="U65" t="s">
-        <v>135</v>
-      </c>
-      <c r="V65" t="str">
+      <c r="U65" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W65" s="4">
+        <v>65</v>
+      </c>
+      <c r="X65" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z65" t="str">
         <f t="shared" si="3"/>
         <v>r65</v>
       </c>
-      <c r="W65" t="s">
+      <c r="AA65" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB65" t="s">
         <v>136</v>
       </c>
-      <c r="X65" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y65" t="str">
+      <c r="AC65" t="str">
         <f t="shared" si="4"/>
         <v>r65</v>
       </c>
-      <c r="Z65" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB65" t="str">
+      <c r="AD65" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF65" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> &lt;input type=checkbox name="r65" value = "r65" id = "r65"/&gt;&lt;label for="r65"&gt;&lt;img src = "./Res/IMGS/r65.jpg"&gt;&lt;/label&gt;   </v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> &lt;input type=checkbox name="r65" value = "r65" id = "r65"&lt;?php if(isset($_POST['r65'])){echo "checked";}?&gt;/&gt;&lt;label for="r65"&gt;&lt;img src = "./Res/IMGS/r65.jpg"&gt;&lt;/label&gt;   </v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -6439,7 +7237,7 @@
         <v/>
       </c>
       <c r="Q66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R66" t="str">
         <f t="shared" ref="R66:T67" si="8">CONCATENATE($K66,$L66)</f>
@@ -6452,28 +7250,28 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U66" t="s">
+      <c r="Y66" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z66" t="str">
+        <f t="shared" ref="Z66:Z67" si="9">CONCATENATE($K66,$L66)</f>
+        <v/>
+      </c>
+      <c r="AA66" t="s">
         <v>135</v>
       </c>
-      <c r="V66" t="str">
-        <f t="shared" ref="V66:V67" si="9">CONCATENATE($K66,$L66)</f>
+      <c r="AB66" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC66" t="str">
+        <f t="shared" ref="AC66:AC67" si="10">CONCATENATE($K66,$L66)</f>
         <v/>
       </c>
-      <c r="W66" t="s">
-        <v>136</v>
-      </c>
-      <c r="X66" t="s">
+      <c r="AD66" t="s">
         <v>137</v>
       </c>
-      <c r="Y66" t="str">
-        <f t="shared" ref="Y66:Y67" si="10">CONCATENATE($K66,$L66)</f>
-        <v/>
-      </c>
-      <c r="Z66" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -6513,7 +7311,7 @@
         <v/>
       </c>
       <c r="Q67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R67" t="str">
         <f t="shared" si="8"/>
@@ -6526,30 +7324,30 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U67" t="s">
-        <v>135</v>
-      </c>
-      <c r="V67" t="str">
+      <c r="Y67" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z67" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W67" t="s">
+      <c r="AA67" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB67" t="s">
         <v>136</v>
       </c>
-      <c r="X67" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y67" t="str">
+      <c r="AC67" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Z67" t="s">
+      <c r="AD67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I71" t="s">
-        <v>139</v>
       </c>
       <c r="J71" t="s">
         <v>132</v>
@@ -6558,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M71" t="s">
         <v>132</v>
@@ -6567,38 +7365,38 @@
         <v>1</v>
       </c>
       <c r="O71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P71" t="s">
         <v>143</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q71" s="3" t="s">
+      <c r="R71" t="s">
         <v>145</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
+        <v>147</v>
+      </c>
+      <c r="T71" t="s">
         <v>146</v>
       </c>
-      <c r="S71" t="s">
-        <v>148</v>
-      </c>
-      <c r="T71" t="s">
-        <v>147</v>
-      </c>
-      <c r="U71" t="s">
-        <v>142</v>
-      </c>
-      <c r="V71" t="str">
-        <f>CONCATENATE(I71,J71,K71,L71,M71,N71,O71,P71,Q71,R71,S71,T71,U71,)</f>
+      <c r="Y71" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z71" t="str">
+        <f>CONCATENATE(I71,J71,K71,L71,M71,N71,O71,P71,Q71,R71,S71,T71,Y71,)</f>
         <v>        if(isset($_POST['r1'])){$query = strtolower($_POST['r1']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
       </c>
-      <c r="Z71" t="str">
+      <c r="AD71" t="str">
         <f>CONCATENATE(I71,J71,K71,L71,M71,N71,O71)</f>
         <v>        if(isset($_POST['r1'])){$query = strtolower($_POST['r1']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J72" t="s">
         <v>132</v>
@@ -6607,7 +7405,7 @@
         <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M72" t="s">
         <v>132</v>
@@ -6616,38 +7414,38 @@
         <v>2</v>
       </c>
       <c r="O72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P72" t="s">
         <v>143</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" t="s">
         <v>145</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
+        <v>147</v>
+      </c>
+      <c r="T72" t="s">
         <v>146</v>
       </c>
-      <c r="S72" t="s">
-        <v>148</v>
-      </c>
-      <c r="T72" t="s">
-        <v>147</v>
-      </c>
-      <c r="U72" t="s">
-        <v>142</v>
-      </c>
-      <c r="V72" t="str">
-        <f t="shared" ref="V72:V135" si="11">CONCATENATE(I72,J72,K72,L72,M72,N72,O72,P72,Q72,R72,S72,T72,U72,)</f>
+      <c r="Y72" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z72" t="str">
+        <f>CONCATENATE(I72,J72,K72,L72,M72,N72,O72,P72,Q72,R72,S72,T72,Y72,)</f>
         <v>        if(isset($_POST['r2'])){$query = strtolower($_POST['r2']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
       </c>
-      <c r="Z72" t="str">
-        <f t="shared" ref="Z72:Z135" si="12">CONCATENATE(I72,J72,K72,L72,M72,N72,O72)</f>
+      <c r="AD72" t="str">
+        <f t="shared" ref="AD72:AD135" si="11">CONCATENATE(I72,J72,K72,L72,M72,N72,O72)</f>
         <v>        if(isset($_POST['r2'])){$query = strtolower($_POST['r2']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J73" t="s">
         <v>132</v>
@@ -6656,7 +7454,7 @@
         <v>3</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M73" t="s">
         <v>132</v>
@@ -6665,38 +7463,38 @@
         <v>3</v>
       </c>
       <c r="O73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P73" t="s">
         <v>143</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q73" s="3" t="s">
+      <c r="R73" t="s">
         <v>145</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
+        <v>147</v>
+      </c>
+      <c r="T73" t="s">
         <v>146</v>
       </c>
-      <c r="S73" t="s">
-        <v>148</v>
-      </c>
-      <c r="T73" t="s">
-        <v>147</v>
-      </c>
-      <c r="U73" t="s">
-        <v>142</v>
-      </c>
-      <c r="V73" t="str">
+      <c r="Y73" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z73" t="str">
+        <f>CONCATENATE(I73,J73,K73,L73,M73,N73,O73,P73,Q73,R73,S73,T73,Y73,)</f>
+        <v>        if(isset($_POST['r3'])){$query = strtolower($_POST['r3']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD73" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r3'])){$query = strtolower($_POST['r3']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z73" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r3'])){$query = strtolower($_POST['r3']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J74" t="s">
         <v>132</v>
@@ -6705,7 +7503,7 @@
         <v>4</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M74" t="s">
         <v>132</v>
@@ -6714,38 +7512,38 @@
         <v>4</v>
       </c>
       <c r="O74" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P74" t="s">
         <v>143</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q74" s="3" t="s">
+      <c r="R74" t="s">
         <v>145</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
+        <v>147</v>
+      </c>
+      <c r="T74" t="s">
         <v>146</v>
       </c>
-      <c r="S74" t="s">
-        <v>148</v>
-      </c>
-      <c r="T74" t="s">
-        <v>147</v>
-      </c>
-      <c r="U74" t="s">
-        <v>142</v>
-      </c>
-      <c r="V74" t="str">
+      <c r="Y74" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z74" t="str">
+        <f>CONCATENATE(I74,J74,K74,L74,M74,N74,O74,P74,Q74,R74,S74,T74,Y74,)</f>
+        <v>        if(isset($_POST['r4'])){$query = strtolower($_POST['r4']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD74" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r4'])){$query = strtolower($_POST['r4']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z74" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r4'])){$query = strtolower($_POST['r4']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J75" t="s">
         <v>132</v>
@@ -6754,7 +7552,7 @@
         <v>5</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M75" t="s">
         <v>132</v>
@@ -6763,38 +7561,38 @@
         <v>5</v>
       </c>
       <c r="O75" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P75" t="s">
         <v>143</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q75" s="3" t="s">
+      <c r="R75" t="s">
         <v>145</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
+        <v>147</v>
+      </c>
+      <c r="T75" t="s">
         <v>146</v>
       </c>
-      <c r="S75" t="s">
-        <v>148</v>
-      </c>
-      <c r="T75" t="s">
-        <v>147</v>
-      </c>
-      <c r="U75" t="s">
-        <v>142</v>
-      </c>
-      <c r="V75" t="str">
+      <c r="Y75" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z75" t="str">
+        <f>CONCATENATE(I75,J75,K75,L75,M75,N75,O75,P75,Q75,R75,S75,T75,Y75,)</f>
+        <v>        if(isset($_POST['r5'])){$query = strtolower($_POST['r5']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD75" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r5'])){$query = strtolower($_POST['r5']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z75" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r5'])){$query = strtolower($_POST['r5']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J76" t="s">
         <v>132</v>
@@ -6803,7 +7601,7 @@
         <v>6</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M76" t="s">
         <v>132</v>
@@ -6812,38 +7610,38 @@
         <v>6</v>
       </c>
       <c r="O76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P76" t="s">
         <v>143</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q76" s="3" t="s">
+      <c r="R76" t="s">
         <v>145</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
+        <v>147</v>
+      </c>
+      <c r="T76" t="s">
         <v>146</v>
       </c>
-      <c r="S76" t="s">
-        <v>148</v>
-      </c>
-      <c r="T76" t="s">
-        <v>147</v>
-      </c>
-      <c r="U76" t="s">
-        <v>142</v>
-      </c>
-      <c r="V76" t="str">
+      <c r="Y76" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z76" t="str">
+        <f>CONCATENATE(I76,J76,K76,L76,M76,N76,O76,P76,Q76,R76,S76,T76,Y76,)</f>
+        <v>        if(isset($_POST['r6'])){$query = strtolower($_POST['r6']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD76" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r6'])){$query = strtolower($_POST['r6']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z76" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r6'])){$query = strtolower($_POST['r6']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J77" t="s">
         <v>132</v>
@@ -6852,7 +7650,7 @@
         <v>7</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M77" t="s">
         <v>132</v>
@@ -6861,38 +7659,38 @@
         <v>7</v>
       </c>
       <c r="O77" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P77" t="s">
         <v>143</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q77" s="3" t="s">
+      <c r="R77" t="s">
         <v>145</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
+        <v>147</v>
+      </c>
+      <c r="T77" t="s">
         <v>146</v>
       </c>
-      <c r="S77" t="s">
-        <v>148</v>
-      </c>
-      <c r="T77" t="s">
-        <v>147</v>
-      </c>
-      <c r="U77" t="s">
-        <v>142</v>
-      </c>
-      <c r="V77" t="str">
+      <c r="Y77" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z77" t="str">
+        <f>CONCATENATE(I77,J77,K77,L77,M77,N77,O77,P77,Q77,R77,S77,T77,Y77,)</f>
+        <v>        if(isset($_POST['r7'])){$query = strtolower($_POST['r7']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD77" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r7'])){$query = strtolower($_POST['r7']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z77" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r7'])){$query = strtolower($_POST['r7']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J78" t="s">
         <v>132</v>
@@ -6901,7 +7699,7 @@
         <v>8</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M78" t="s">
         <v>132</v>
@@ -6910,38 +7708,38 @@
         <v>8</v>
       </c>
       <c r="O78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P78" t="s">
         <v>143</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q78" s="3" t="s">
+      <c r="R78" t="s">
         <v>145</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
+        <v>147</v>
+      </c>
+      <c r="T78" t="s">
         <v>146</v>
       </c>
-      <c r="S78" t="s">
-        <v>148</v>
-      </c>
-      <c r="T78" t="s">
-        <v>147</v>
-      </c>
-      <c r="U78" t="s">
-        <v>142</v>
-      </c>
-      <c r="V78" t="str">
+      <c r="Y78" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z78" t="str">
+        <f>CONCATENATE(I78,J78,K78,L78,M78,N78,O78,P78,Q78,R78,S78,T78,Y78,)</f>
+        <v>        if(isset($_POST['r8'])){$query = strtolower($_POST['r8']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD78" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r8'])){$query = strtolower($_POST['r8']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z78" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r8'])){$query = strtolower($_POST['r8']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J79" t="s">
         <v>132</v>
@@ -6950,7 +7748,7 @@
         <v>9</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M79" t="s">
         <v>132</v>
@@ -6959,38 +7757,38 @@
         <v>9</v>
       </c>
       <c r="O79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P79" t="s">
         <v>143</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q79" s="3" t="s">
+      <c r="R79" t="s">
         <v>145</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
+        <v>147</v>
+      </c>
+      <c r="T79" t="s">
         <v>146</v>
       </c>
-      <c r="S79" t="s">
-        <v>148</v>
-      </c>
-      <c r="T79" t="s">
-        <v>147</v>
-      </c>
-      <c r="U79" t="s">
-        <v>142</v>
-      </c>
-      <c r="V79" t="str">
+      <c r="Y79" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z79" t="str">
+        <f>CONCATENATE(I79,J79,K79,L79,M79,N79,O79,P79,Q79,R79,S79,T79,Y79,)</f>
+        <v>        if(isset($_POST['r9'])){$query = strtolower($_POST['r9']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD79" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r9'])){$query = strtolower($_POST['r9']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z79" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r9'])){$query = strtolower($_POST['r9']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J80" t="s">
         <v>132</v>
@@ -6999,7 +7797,7 @@
         <v>10</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M80" t="s">
         <v>132</v>
@@ -7008,38 +7806,38 @@
         <v>10</v>
       </c>
       <c r="O80" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P80" t="s">
         <v>143</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q80" s="3" t="s">
+      <c r="R80" t="s">
         <v>145</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
+        <v>147</v>
+      </c>
+      <c r="T80" t="s">
         <v>146</v>
       </c>
-      <c r="S80" t="s">
-        <v>148</v>
-      </c>
-      <c r="T80" t="s">
-        <v>147</v>
-      </c>
-      <c r="U80" t="s">
-        <v>142</v>
-      </c>
-      <c r="V80" t="str">
+      <c r="Y80" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z80" t="str">
+        <f>CONCATENATE(I80,J80,K80,L80,M80,N80,O80,P80,Q80,R80,S80,T80,Y80,)</f>
+        <v>        if(isset($_POST['r10'])){$query = strtolower($_POST['r10']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD80" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r10'])){$query = strtolower($_POST['r10']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z80" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r10'])){$query = strtolower($_POST['r10']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="81" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J81" t="s">
         <v>132</v>
@@ -7048,7 +7846,7 @@
         <v>11</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M81" t="s">
         <v>132</v>
@@ -7057,38 +7855,38 @@
         <v>11</v>
       </c>
       <c r="O81" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P81" t="s">
         <v>143</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q81" s="3" t="s">
+      <c r="R81" t="s">
         <v>145</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
+        <v>147</v>
+      </c>
+      <c r="T81" t="s">
         <v>146</v>
       </c>
-      <c r="S81" t="s">
-        <v>148</v>
-      </c>
-      <c r="T81" t="s">
-        <v>147</v>
-      </c>
-      <c r="U81" t="s">
-        <v>142</v>
-      </c>
-      <c r="V81" t="str">
+      <c r="Y81" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z81" t="str">
+        <f>CONCATENATE(I81,J81,K81,L81,M81,N81,O81,P81,Q81,R81,S81,T81,Y81,)</f>
+        <v>        if(isset($_POST['r11'])){$query = strtolower($_POST['r11']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD81" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r11'])){$query = strtolower($_POST['r11']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z81" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r11'])){$query = strtolower($_POST['r11']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="82" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J82" t="s">
         <v>132</v>
@@ -7097,7 +7895,7 @@
         <v>12</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M82" t="s">
         <v>132</v>
@@ -7106,38 +7904,38 @@
         <v>12</v>
       </c>
       <c r="O82" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P82" t="s">
         <v>143</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q82" s="3" t="s">
+      <c r="R82" t="s">
         <v>145</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
+        <v>147</v>
+      </c>
+      <c r="T82" t="s">
         <v>146</v>
       </c>
-      <c r="S82" t="s">
-        <v>148</v>
-      </c>
-      <c r="T82" t="s">
-        <v>147</v>
-      </c>
-      <c r="U82" t="s">
-        <v>142</v>
-      </c>
-      <c r="V82" t="str">
+      <c r="Y82" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z82" t="str">
+        <f>CONCATENATE(I82,J82,K82,L82,M82,N82,O82,P82,Q82,R82,S82,T82,Y82,)</f>
+        <v>        if(isset($_POST['r12'])){$query = strtolower($_POST['r12']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD82" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r12'])){$query = strtolower($_POST['r12']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z82" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r12'])){$query = strtolower($_POST['r12']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="83" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J83" t="s">
         <v>132</v>
@@ -7146,7 +7944,7 @@
         <v>13</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M83" t="s">
         <v>132</v>
@@ -7155,38 +7953,38 @@
         <v>13</v>
       </c>
       <c r="O83" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P83" t="s">
         <v>143</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q83" s="3" t="s">
+      <c r="R83" t="s">
         <v>145</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
+        <v>147</v>
+      </c>
+      <c r="T83" t="s">
         <v>146</v>
       </c>
-      <c r="S83" t="s">
-        <v>148</v>
-      </c>
-      <c r="T83" t="s">
-        <v>147</v>
-      </c>
-      <c r="U83" t="s">
-        <v>142</v>
-      </c>
-      <c r="V83" t="str">
+      <c r="Y83" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z83" t="str">
+        <f>CONCATENATE(I83,J83,K83,L83,M83,N83,O83,P83,Q83,R83,S83,T83,Y83,)</f>
+        <v>        if(isset($_POST['r13'])){$query = strtolower($_POST['r13']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD83" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r13'])){$query = strtolower($_POST['r13']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z83" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r13'])){$query = strtolower($_POST['r13']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="84" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J84" t="s">
         <v>132</v>
@@ -7195,7 +7993,7 @@
         <v>14</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M84" t="s">
         <v>132</v>
@@ -7204,38 +8002,38 @@
         <v>14</v>
       </c>
       <c r="O84" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P84" t="s">
         <v>143</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q84" s="3" t="s">
+      <c r="R84" t="s">
         <v>145</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
+        <v>147</v>
+      </c>
+      <c r="T84" t="s">
         <v>146</v>
       </c>
-      <c r="S84" t="s">
-        <v>148</v>
-      </c>
-      <c r="T84" t="s">
-        <v>147</v>
-      </c>
-      <c r="U84" t="s">
-        <v>142</v>
-      </c>
-      <c r="V84" t="str">
+      <c r="Y84" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z84" t="str">
+        <f>CONCATENATE(I84,J84,K84,L84,M84,N84,O84,P84,Q84,R84,S84,T84,Y84,)</f>
+        <v>        if(isset($_POST['r14'])){$query = strtolower($_POST['r14']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD84" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r14'])){$query = strtolower($_POST['r14']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z84" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r14'])){$query = strtolower($_POST['r14']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="85" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J85" t="s">
         <v>132</v>
@@ -7244,7 +8042,7 @@
         <v>15</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M85" t="s">
         <v>132</v>
@@ -7253,38 +8051,38 @@
         <v>15</v>
       </c>
       <c r="O85" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P85" t="s">
         <v>143</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q85" s="3" t="s">
+      <c r="R85" t="s">
         <v>145</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
+        <v>147</v>
+      </c>
+      <c r="T85" t="s">
         <v>146</v>
       </c>
-      <c r="S85" t="s">
-        <v>148</v>
-      </c>
-      <c r="T85" t="s">
-        <v>147</v>
-      </c>
-      <c r="U85" t="s">
-        <v>142</v>
-      </c>
-      <c r="V85" t="str">
+      <c r="Y85" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z85" t="str">
+        <f>CONCATENATE(I85,J85,K85,L85,M85,N85,O85,P85,Q85,R85,S85,T85,Y85,)</f>
+        <v>        if(isset($_POST['r15'])){$query = strtolower($_POST['r15']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD85" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r15'])){$query = strtolower($_POST['r15']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z85" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r15'])){$query = strtolower($_POST['r15']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="86" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J86" t="s">
         <v>132</v>
@@ -7293,7 +8091,7 @@
         <v>16</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M86" t="s">
         <v>132</v>
@@ -7302,38 +8100,38 @@
         <v>16</v>
       </c>
       <c r="O86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P86" t="s">
         <v>143</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q86" s="3" t="s">
+      <c r="R86" t="s">
         <v>145</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
+        <v>147</v>
+      </c>
+      <c r="T86" t="s">
         <v>146</v>
       </c>
-      <c r="S86" t="s">
-        <v>148</v>
-      </c>
-      <c r="T86" t="s">
-        <v>147</v>
-      </c>
-      <c r="U86" t="s">
-        <v>142</v>
-      </c>
-      <c r="V86" t="str">
+      <c r="Y86" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z86" t="str">
+        <f>CONCATENATE(I86,J86,K86,L86,M86,N86,O86,P86,Q86,R86,S86,T86,Y86,)</f>
+        <v>        if(isset($_POST['r16'])){$query = strtolower($_POST['r16']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD86" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r16'])){$query = strtolower($_POST['r16']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z86" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r16'])){$query = strtolower($_POST['r16']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="87" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J87" t="s">
         <v>132</v>
@@ -7342,7 +8140,7 @@
         <v>17</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M87" t="s">
         <v>132</v>
@@ -7351,38 +8149,38 @@
         <v>17</v>
       </c>
       <c r="O87" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P87" t="s">
         <v>143</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q87" s="3" t="s">
+      <c r="R87" t="s">
         <v>145</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
+        <v>147</v>
+      </c>
+      <c r="T87" t="s">
         <v>146</v>
       </c>
-      <c r="S87" t="s">
-        <v>148</v>
-      </c>
-      <c r="T87" t="s">
-        <v>147</v>
-      </c>
-      <c r="U87" t="s">
-        <v>142</v>
-      </c>
-      <c r="V87" t="str">
+      <c r="Y87" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z87" t="str">
+        <f>CONCATENATE(I87,J87,K87,L87,M87,N87,O87,P87,Q87,R87,S87,T87,Y87,)</f>
+        <v>        if(isset($_POST['r17'])){$query = strtolower($_POST['r17']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD87" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r17'])){$query = strtolower($_POST['r17']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z87" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r17'])){$query = strtolower($_POST['r17']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="88" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J88" t="s">
         <v>132</v>
@@ -7391,7 +8189,7 @@
         <v>18</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M88" t="s">
         <v>132</v>
@@ -7400,38 +8198,38 @@
         <v>18</v>
       </c>
       <c r="O88" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P88" t="s">
         <v>143</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q88" s="3" t="s">
+      <c r="R88" t="s">
         <v>145</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
+        <v>147</v>
+      </c>
+      <c r="T88" t="s">
         <v>146</v>
       </c>
-      <c r="S88" t="s">
-        <v>148</v>
-      </c>
-      <c r="T88" t="s">
-        <v>147</v>
-      </c>
-      <c r="U88" t="s">
-        <v>142</v>
-      </c>
-      <c r="V88" t="str">
+      <c r="Y88" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z88" t="str">
+        <f>CONCATENATE(I88,J88,K88,L88,M88,N88,O88,P88,Q88,R88,S88,T88,Y88,)</f>
+        <v>        if(isset($_POST['r18'])){$query = strtolower($_POST['r18']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD88" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r18'])){$query = strtolower($_POST['r18']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z88" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r18'])){$query = strtolower($_POST['r18']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="89" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J89" t="s">
         <v>132</v>
@@ -7440,7 +8238,7 @@
         <v>19</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M89" t="s">
         <v>132</v>
@@ -7449,38 +8247,38 @@
         <v>19</v>
       </c>
       <c r="O89" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P89" t="s">
         <v>143</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q89" s="3" t="s">
+      <c r="R89" t="s">
         <v>145</v>
       </c>
-      <c r="R89" t="s">
+      <c r="S89" t="s">
+        <v>147</v>
+      </c>
+      <c r="T89" t="s">
         <v>146</v>
       </c>
-      <c r="S89" t="s">
-        <v>148</v>
-      </c>
-      <c r="T89" t="s">
-        <v>147</v>
-      </c>
-      <c r="U89" t="s">
-        <v>142</v>
-      </c>
-      <c r="V89" t="str">
+      <c r="Y89" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z89" t="str">
+        <f>CONCATENATE(I89,J89,K89,L89,M89,N89,O89,P89,Q89,R89,S89,T89,Y89,)</f>
+        <v>        if(isset($_POST['r19'])){$query = strtolower($_POST['r19']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD89" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r19'])){$query = strtolower($_POST['r19']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z89" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r19'])){$query = strtolower($_POST['r19']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="90" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J90" t="s">
         <v>132</v>
@@ -7489,7 +8287,7 @@
         <v>20</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M90" t="s">
         <v>132</v>
@@ -7498,38 +8296,38 @@
         <v>20</v>
       </c>
       <c r="O90" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P90" t="s">
         <v>143</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q90" s="3" t="s">
+      <c r="R90" t="s">
         <v>145</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
+        <v>147</v>
+      </c>
+      <c r="T90" t="s">
         <v>146</v>
       </c>
-      <c r="S90" t="s">
-        <v>148</v>
-      </c>
-      <c r="T90" t="s">
-        <v>147</v>
-      </c>
-      <c r="U90" t="s">
-        <v>142</v>
-      </c>
-      <c r="V90" t="str">
+      <c r="Y90" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z90" t="str">
+        <f>CONCATENATE(I90,J90,K90,L90,M90,N90,O90,P90,Q90,R90,S90,T90,Y90,)</f>
+        <v>        if(isset($_POST['r20'])){$query = strtolower($_POST['r20']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD90" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r20'])){$query = strtolower($_POST['r20']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z90" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r20'])){$query = strtolower($_POST['r20']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="91" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J91" t="s">
         <v>132</v>
@@ -7538,7 +8336,7 @@
         <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M91" t="s">
         <v>132</v>
@@ -7547,38 +8345,38 @@
         <v>21</v>
       </c>
       <c r="O91" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P91" t="s">
         <v>143</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="R91" t="s">
         <v>145</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
+        <v>147</v>
+      </c>
+      <c r="T91" t="s">
         <v>146</v>
       </c>
-      <c r="S91" t="s">
-        <v>148</v>
-      </c>
-      <c r="T91" t="s">
-        <v>147</v>
-      </c>
-      <c r="U91" t="s">
-        <v>142</v>
-      </c>
-      <c r="V91" t="str">
+      <c r="Y91" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z91" t="str">
+        <f>CONCATENATE(I91,J91,K91,L91,M91,N91,O91,P91,Q91,R91,S91,T91,Y91,)</f>
+        <v>        if(isset($_POST['r21'])){$query = strtolower($_POST['r21']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD91" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r21'])){$query = strtolower($_POST['r21']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z91" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r21'])){$query = strtolower($_POST['r21']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="92" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J92" t="s">
         <v>132</v>
@@ -7587,7 +8385,7 @@
         <v>22</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M92" t="s">
         <v>132</v>
@@ -7596,38 +8394,38 @@
         <v>22</v>
       </c>
       <c r="O92" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P92" t="s">
         <v>143</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q92" s="3" t="s">
+      <c r="R92" t="s">
         <v>145</v>
       </c>
-      <c r="R92" t="s">
+      <c r="S92" t="s">
+        <v>147</v>
+      </c>
+      <c r="T92" t="s">
         <v>146</v>
       </c>
-      <c r="S92" t="s">
-        <v>148</v>
-      </c>
-      <c r="T92" t="s">
-        <v>147</v>
-      </c>
-      <c r="U92" t="s">
-        <v>142</v>
-      </c>
-      <c r="V92" t="str">
+      <c r="Y92" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z92" t="str">
+        <f>CONCATENATE(I92,J92,K92,L92,M92,N92,O92,P92,Q92,R92,S92,T92,Y92,)</f>
+        <v>        if(isset($_POST['r22'])){$query = strtolower($_POST['r22']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD92" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r22'])){$query = strtolower($_POST['r22']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z92" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r22'])){$query = strtolower($_POST['r22']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="93" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J93" t="s">
         <v>132</v>
@@ -7636,7 +8434,7 @@
         <v>23</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M93" t="s">
         <v>132</v>
@@ -7645,38 +8443,38 @@
         <v>23</v>
       </c>
       <c r="O93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P93" t="s">
         <v>143</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q93" s="3" t="s">
+      <c r="R93" t="s">
         <v>145</v>
       </c>
-      <c r="R93" t="s">
+      <c r="S93" t="s">
+        <v>147</v>
+      </c>
+      <c r="T93" t="s">
         <v>146</v>
       </c>
-      <c r="S93" t="s">
-        <v>148</v>
-      </c>
-      <c r="T93" t="s">
-        <v>147</v>
-      </c>
-      <c r="U93" t="s">
-        <v>142</v>
-      </c>
-      <c r="V93" t="str">
+      <c r="Y93" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z93" t="str">
+        <f>CONCATENATE(I93,J93,K93,L93,M93,N93,O93,P93,Q93,R93,S93,T93,Y93,)</f>
+        <v>        if(isset($_POST['r23'])){$query = strtolower($_POST['r23']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD93" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r23'])){$query = strtolower($_POST['r23']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z93" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r23'])){$query = strtolower($_POST['r23']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="94" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J94" t="s">
         <v>132</v>
@@ -7685,7 +8483,7 @@
         <v>24</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M94" t="s">
         <v>132</v>
@@ -7694,38 +8492,38 @@
         <v>24</v>
       </c>
       <c r="O94" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P94" t="s">
         <v>143</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q94" s="3" t="s">
+      <c r="R94" t="s">
         <v>145</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
+        <v>147</v>
+      </c>
+      <c r="T94" t="s">
         <v>146</v>
       </c>
-      <c r="S94" t="s">
-        <v>148</v>
-      </c>
-      <c r="T94" t="s">
-        <v>147</v>
-      </c>
-      <c r="U94" t="s">
-        <v>142</v>
-      </c>
-      <c r="V94" t="str">
+      <c r="Y94" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z94" t="str">
+        <f>CONCATENATE(I94,J94,K94,L94,M94,N94,O94,P94,Q94,R94,S94,T94,Y94,)</f>
+        <v>        if(isset($_POST['r24'])){$query = strtolower($_POST['r24']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD94" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r24'])){$query = strtolower($_POST['r24']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z94" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r24'])){$query = strtolower($_POST['r24']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="95" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J95" t="s">
         <v>132</v>
@@ -7734,7 +8532,7 @@
         <v>25</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M95" t="s">
         <v>132</v>
@@ -7743,38 +8541,38 @@
         <v>25</v>
       </c>
       <c r="O95" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P95" t="s">
         <v>143</v>
       </c>
-      <c r="P95" t="s">
+      <c r="Q95" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q95" s="3" t="s">
+      <c r="R95" t="s">
         <v>145</v>
       </c>
-      <c r="R95" t="s">
+      <c r="S95" t="s">
+        <v>147</v>
+      </c>
+      <c r="T95" t="s">
         <v>146</v>
       </c>
-      <c r="S95" t="s">
-        <v>148</v>
-      </c>
-      <c r="T95" t="s">
-        <v>147</v>
-      </c>
-      <c r="U95" t="s">
-        <v>142</v>
-      </c>
-      <c r="V95" t="str">
+      <c r="Y95" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z95" t="str">
+        <f>CONCATENATE(I95,J95,K95,L95,M95,N95,O95,P95,Q95,R95,S95,T95,Y95,)</f>
+        <v>        if(isset($_POST['r25'])){$query = strtolower($_POST['r25']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD95" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r25'])){$query = strtolower($_POST['r25']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z95" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r25'])){$query = strtolower($_POST['r25']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="96" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J96" t="s">
         <v>132</v>
@@ -7783,7 +8581,7 @@
         <v>26</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M96" t="s">
         <v>132</v>
@@ -7792,38 +8590,38 @@
         <v>26</v>
       </c>
       <c r="O96" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P96" t="s">
         <v>143</v>
       </c>
-      <c r="P96" t="s">
+      <c r="Q96" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q96" s="3" t="s">
+      <c r="R96" t="s">
         <v>145</v>
       </c>
-      <c r="R96" t="s">
+      <c r="S96" t="s">
+        <v>147</v>
+      </c>
+      <c r="T96" t="s">
         <v>146</v>
       </c>
-      <c r="S96" t="s">
-        <v>148</v>
-      </c>
-      <c r="T96" t="s">
-        <v>147</v>
-      </c>
-      <c r="U96" t="s">
-        <v>142</v>
-      </c>
-      <c r="V96" t="str">
+      <c r="Y96" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z96" t="str">
+        <f>CONCATENATE(I96,J96,K96,L96,M96,N96,O96,P96,Q96,R96,S96,T96,Y96,)</f>
+        <v>        if(isset($_POST['r26'])){$query = strtolower($_POST['r26']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD96" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r26'])){$query = strtolower($_POST['r26']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z96" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r26'])){$query = strtolower($_POST['r26']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="97" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J97" t="s">
         <v>132</v>
@@ -7832,7 +8630,7 @@
         <v>27</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M97" t="s">
         <v>132</v>
@@ -7841,38 +8639,38 @@
         <v>27</v>
       </c>
       <c r="O97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P97" t="s">
         <v>143</v>
       </c>
-      <c r="P97" t="s">
+      <c r="Q97" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q97" s="3" t="s">
+      <c r="R97" t="s">
         <v>145</v>
       </c>
-      <c r="R97" t="s">
+      <c r="S97" t="s">
+        <v>147</v>
+      </c>
+      <c r="T97" t="s">
         <v>146</v>
       </c>
-      <c r="S97" t="s">
-        <v>148</v>
-      </c>
-      <c r="T97" t="s">
-        <v>147</v>
-      </c>
-      <c r="U97" t="s">
-        <v>142</v>
-      </c>
-      <c r="V97" t="str">
+      <c r="Y97" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z97" t="str">
+        <f>CONCATENATE(I97,J97,K97,L97,M97,N97,O97,P97,Q97,R97,S97,T97,Y97,)</f>
+        <v>        if(isset($_POST['r27'])){$query = strtolower($_POST['r27']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD97" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r27'])){$query = strtolower($_POST['r27']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z97" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r27'])){$query = strtolower($_POST['r27']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="98" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J98" t="s">
         <v>132</v>
@@ -7881,7 +8679,7 @@
         <v>28</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M98" t="s">
         <v>132</v>
@@ -7890,38 +8688,38 @@
         <v>28</v>
       </c>
       <c r="O98" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P98" t="s">
         <v>143</v>
       </c>
-      <c r="P98" t="s">
+      <c r="Q98" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q98" s="3" t="s">
+      <c r="R98" t="s">
         <v>145</v>
       </c>
-      <c r="R98" t="s">
+      <c r="S98" t="s">
+        <v>147</v>
+      </c>
+      <c r="T98" t="s">
         <v>146</v>
       </c>
-      <c r="S98" t="s">
-        <v>148</v>
-      </c>
-      <c r="T98" t="s">
-        <v>147</v>
-      </c>
-      <c r="U98" t="s">
-        <v>142</v>
-      </c>
-      <c r="V98" t="str">
+      <c r="Y98" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z98" t="str">
+        <f>CONCATENATE(I98,J98,K98,L98,M98,N98,O98,P98,Q98,R98,S98,T98,Y98,)</f>
+        <v>        if(isset($_POST['r28'])){$query = strtolower($_POST['r28']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD98" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r28'])){$query = strtolower($_POST['r28']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z98" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r28'])){$query = strtolower($_POST['r28']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="99" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J99" t="s">
         <v>132</v>
@@ -7930,7 +8728,7 @@
         <v>29</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M99" t="s">
         <v>132</v>
@@ -7939,38 +8737,38 @@
         <v>29</v>
       </c>
       <c r="O99" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P99" t="s">
         <v>143</v>
       </c>
-      <c r="P99" t="s">
+      <c r="Q99" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q99" s="3" t="s">
+      <c r="R99" t="s">
         <v>145</v>
       </c>
-      <c r="R99" t="s">
+      <c r="S99" t="s">
+        <v>147</v>
+      </c>
+      <c r="T99" t="s">
         <v>146</v>
       </c>
-      <c r="S99" t="s">
-        <v>148</v>
-      </c>
-      <c r="T99" t="s">
-        <v>147</v>
-      </c>
-      <c r="U99" t="s">
-        <v>142</v>
-      </c>
-      <c r="V99" t="str">
+      <c r="Y99" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z99" t="str">
+        <f>CONCATENATE(I99,J99,K99,L99,M99,N99,O99,P99,Q99,R99,S99,T99,Y99,)</f>
+        <v>        if(isset($_POST['r29'])){$query = strtolower($_POST['r29']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD99" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r29'])){$query = strtolower($_POST['r29']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z99" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r29'])){$query = strtolower($_POST['r29']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="100" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J100" t="s">
         <v>132</v>
@@ -7979,7 +8777,7 @@
         <v>30</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M100" t="s">
         <v>132</v>
@@ -7988,38 +8786,38 @@
         <v>30</v>
       </c>
       <c r="O100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P100" t="s">
         <v>143</v>
       </c>
-      <c r="P100" t="s">
+      <c r="Q100" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q100" s="3" t="s">
+      <c r="R100" t="s">
         <v>145</v>
       </c>
-      <c r="R100" t="s">
+      <c r="S100" t="s">
+        <v>147</v>
+      </c>
+      <c r="T100" t="s">
         <v>146</v>
       </c>
-      <c r="S100" t="s">
-        <v>148</v>
-      </c>
-      <c r="T100" t="s">
-        <v>147</v>
-      </c>
-      <c r="U100" t="s">
-        <v>142</v>
-      </c>
-      <c r="V100" t="str">
+      <c r="Y100" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z100" t="str">
+        <f>CONCATENATE(I100,J100,K100,L100,M100,N100,O100,P100,Q100,R100,S100,T100,Y100,)</f>
+        <v>        if(isset($_POST['r30'])){$query = strtolower($_POST['r30']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD100" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r30'])){$query = strtolower($_POST['r30']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z100" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r30'])){$query = strtolower($_POST['r30']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="101" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J101" t="s">
         <v>132</v>
@@ -8028,7 +8826,7 @@
         <v>31</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M101" t="s">
         <v>132</v>
@@ -8037,38 +8835,38 @@
         <v>31</v>
       </c>
       <c r="O101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P101" t="s">
         <v>143</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q101" s="3" t="s">
+      <c r="R101" t="s">
         <v>145</v>
       </c>
-      <c r="R101" t="s">
+      <c r="S101" t="s">
+        <v>147</v>
+      </c>
+      <c r="T101" t="s">
         <v>146</v>
       </c>
-      <c r="S101" t="s">
-        <v>148</v>
-      </c>
-      <c r="T101" t="s">
-        <v>147</v>
-      </c>
-      <c r="U101" t="s">
-        <v>142</v>
-      </c>
-      <c r="V101" t="str">
+      <c r="Y101" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z101" t="str">
+        <f>CONCATENATE(I101,J101,K101,L101,M101,N101,O101,P101,Q101,R101,S101,T101,Y101,)</f>
+        <v>        if(isset($_POST['r31'])){$query = strtolower($_POST['r31']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD101" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r31'])){$query = strtolower($_POST['r31']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z101" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r31'])){$query = strtolower($_POST['r31']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="102" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J102" t="s">
         <v>132</v>
@@ -8077,7 +8875,7 @@
         <v>32</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M102" t="s">
         <v>132</v>
@@ -8086,38 +8884,38 @@
         <v>32</v>
       </c>
       <c r="O102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P102" t="s">
         <v>143</v>
       </c>
-      <c r="P102" t="s">
+      <c r="Q102" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" t="s">
         <v>145</v>
       </c>
-      <c r="R102" t="s">
+      <c r="S102" t="s">
+        <v>147</v>
+      </c>
+      <c r="T102" t="s">
         <v>146</v>
       </c>
-      <c r="S102" t="s">
-        <v>148</v>
-      </c>
-      <c r="T102" t="s">
-        <v>147</v>
-      </c>
-      <c r="U102" t="s">
-        <v>142</v>
-      </c>
-      <c r="V102" t="str">
+      <c r="Y102" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z102" t="str">
+        <f>CONCATENATE(I102,J102,K102,L102,M102,N102,O102,P102,Q102,R102,S102,T102,Y102,)</f>
+        <v>        if(isset($_POST['r32'])){$query = strtolower($_POST['r32']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD102" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r32'])){$query = strtolower($_POST['r32']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z102" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r32'])){$query = strtolower($_POST['r32']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="103" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J103" t="s">
         <v>132</v>
@@ -8126,7 +8924,7 @@
         <v>33</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M103" t="s">
         <v>132</v>
@@ -8135,38 +8933,38 @@
         <v>33</v>
       </c>
       <c r="O103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P103" t="s">
         <v>143</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q103" s="3" t="s">
+      <c r="R103" t="s">
         <v>145</v>
       </c>
-      <c r="R103" t="s">
+      <c r="S103" t="s">
+        <v>147</v>
+      </c>
+      <c r="T103" t="s">
         <v>146</v>
       </c>
-      <c r="S103" t="s">
-        <v>148</v>
-      </c>
-      <c r="T103" t="s">
-        <v>147</v>
-      </c>
-      <c r="U103" t="s">
-        <v>142</v>
-      </c>
-      <c r="V103" t="str">
+      <c r="Y103" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z103" t="str">
+        <f>CONCATENATE(I103,J103,K103,L103,M103,N103,O103,P103,Q103,R103,S103,T103,Y103,)</f>
+        <v>        if(isset($_POST['r33'])){$query = strtolower($_POST['r33']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD103" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r33'])){$query = strtolower($_POST['r33']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z103" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r33'])){$query = strtolower($_POST['r33']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="104" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J104" t="s">
         <v>132</v>
@@ -8175,7 +8973,7 @@
         <v>34</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M104" t="s">
         <v>132</v>
@@ -8184,38 +8982,38 @@
         <v>34</v>
       </c>
       <c r="O104" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P104" t="s">
         <v>143</v>
       </c>
-      <c r="P104" t="s">
+      <c r="Q104" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q104" s="3" t="s">
+      <c r="R104" t="s">
         <v>145</v>
       </c>
-      <c r="R104" t="s">
+      <c r="S104" t="s">
+        <v>147</v>
+      </c>
+      <c r="T104" t="s">
         <v>146</v>
       </c>
-      <c r="S104" t="s">
-        <v>148</v>
-      </c>
-      <c r="T104" t="s">
-        <v>147</v>
-      </c>
-      <c r="U104" t="s">
-        <v>142</v>
-      </c>
-      <c r="V104" t="str">
+      <c r="Y104" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z104" t="str">
+        <f>CONCATENATE(I104,J104,K104,L104,M104,N104,O104,P104,Q104,R104,S104,T104,Y104,)</f>
+        <v>        if(isset($_POST['r34'])){$query = strtolower($_POST['r34']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD104" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r34'])){$query = strtolower($_POST['r34']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z104" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r34'])){$query = strtolower($_POST['r34']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="105" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J105" t="s">
         <v>132</v>
@@ -8224,7 +9022,7 @@
         <v>35</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M105" t="s">
         <v>132</v>
@@ -8233,38 +9031,38 @@
         <v>35</v>
       </c>
       <c r="O105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P105" t="s">
         <v>143</v>
       </c>
-      <c r="P105" t="s">
+      <c r="Q105" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q105" s="3" t="s">
+      <c r="R105" t="s">
         <v>145</v>
       </c>
-      <c r="R105" t="s">
+      <c r="S105" t="s">
+        <v>147</v>
+      </c>
+      <c r="T105" t="s">
         <v>146</v>
       </c>
-      <c r="S105" t="s">
-        <v>148</v>
-      </c>
-      <c r="T105" t="s">
-        <v>147</v>
-      </c>
-      <c r="U105" t="s">
-        <v>142</v>
-      </c>
-      <c r="V105" t="str">
+      <c r="Y105" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z105" t="str">
+        <f>CONCATENATE(I105,J105,K105,L105,M105,N105,O105,P105,Q105,R105,S105,T105,Y105,)</f>
+        <v>        if(isset($_POST['r35'])){$query = strtolower($_POST['r35']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD105" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r35'])){$query = strtolower($_POST['r35']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z105" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r35'])){$query = strtolower($_POST['r35']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="106" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J106" t="s">
         <v>132</v>
@@ -8273,7 +9071,7 @@
         <v>36</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M106" t="s">
         <v>132</v>
@@ -8282,38 +9080,38 @@
         <v>36</v>
       </c>
       <c r="O106" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P106" t="s">
         <v>143</v>
       </c>
-      <c r="P106" t="s">
+      <c r="Q106" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q106" s="3" t="s">
+      <c r="R106" t="s">
         <v>145</v>
       </c>
-      <c r="R106" t="s">
+      <c r="S106" t="s">
+        <v>147</v>
+      </c>
+      <c r="T106" t="s">
         <v>146</v>
       </c>
-      <c r="S106" t="s">
-        <v>148</v>
-      </c>
-      <c r="T106" t="s">
-        <v>147</v>
-      </c>
-      <c r="U106" t="s">
-        <v>142</v>
-      </c>
-      <c r="V106" t="str">
+      <c r="Y106" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z106" t="str">
+        <f>CONCATENATE(I106,J106,K106,L106,M106,N106,O106,P106,Q106,R106,S106,T106,Y106,)</f>
+        <v>        if(isset($_POST['r36'])){$query = strtolower($_POST['r36']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD106" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r36'])){$query = strtolower($_POST['r36']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z106" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r36'])){$query = strtolower($_POST['r36']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="107" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J107" t="s">
         <v>132</v>
@@ -8322,7 +9120,7 @@
         <v>37</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M107" t="s">
         <v>132</v>
@@ -8331,38 +9129,38 @@
         <v>37</v>
       </c>
       <c r="O107" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P107" t="s">
         <v>143</v>
       </c>
-      <c r="P107" t="s">
+      <c r="Q107" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q107" s="3" t="s">
+      <c r="R107" t="s">
         <v>145</v>
       </c>
-      <c r="R107" t="s">
+      <c r="S107" t="s">
+        <v>147</v>
+      </c>
+      <c r="T107" t="s">
         <v>146</v>
       </c>
-      <c r="S107" t="s">
-        <v>148</v>
-      </c>
-      <c r="T107" t="s">
-        <v>147</v>
-      </c>
-      <c r="U107" t="s">
-        <v>142</v>
-      </c>
-      <c r="V107" t="str">
+      <c r="Y107" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z107" t="str">
+        <f>CONCATENATE(I107,J107,K107,L107,M107,N107,O107,P107,Q107,R107,S107,T107,Y107,)</f>
+        <v>        if(isset($_POST['r37'])){$query = strtolower($_POST['r37']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD107" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r37'])){$query = strtolower($_POST['r37']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z107" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r37'])){$query = strtolower($_POST['r37']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="108" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J108" t="s">
         <v>132</v>
@@ -8371,7 +9169,7 @@
         <v>38</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M108" t="s">
         <v>132</v>
@@ -8380,38 +9178,38 @@
         <v>38</v>
       </c>
       <c r="O108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P108" t="s">
         <v>143</v>
       </c>
-      <c r="P108" t="s">
+      <c r="Q108" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q108" s="3" t="s">
+      <c r="R108" t="s">
         <v>145</v>
       </c>
-      <c r="R108" t="s">
+      <c r="S108" t="s">
+        <v>147</v>
+      </c>
+      <c r="T108" t="s">
         <v>146</v>
       </c>
-      <c r="S108" t="s">
-        <v>148</v>
-      </c>
-      <c r="T108" t="s">
-        <v>147</v>
-      </c>
-      <c r="U108" t="s">
-        <v>142</v>
-      </c>
-      <c r="V108" t="str">
+      <c r="Y108" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z108" t="str">
+        <f>CONCATENATE(I108,J108,K108,L108,M108,N108,O108,P108,Q108,R108,S108,T108,Y108,)</f>
+        <v>        if(isset($_POST['r38'])){$query = strtolower($_POST['r38']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD108" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r38'])){$query = strtolower($_POST['r38']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z108" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r38'])){$query = strtolower($_POST['r38']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="109" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J109" t="s">
         <v>132</v>
@@ -8420,7 +9218,7 @@
         <v>39</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M109" t="s">
         <v>132</v>
@@ -8429,38 +9227,38 @@
         <v>39</v>
       </c>
       <c r="O109" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P109" t="s">
         <v>143</v>
       </c>
-      <c r="P109" t="s">
+      <c r="Q109" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q109" s="3" t="s">
+      <c r="R109" t="s">
         <v>145</v>
       </c>
-      <c r="R109" t="s">
+      <c r="S109" t="s">
+        <v>147</v>
+      </c>
+      <c r="T109" t="s">
         <v>146</v>
       </c>
-      <c r="S109" t="s">
-        <v>148</v>
-      </c>
-      <c r="T109" t="s">
-        <v>147</v>
-      </c>
-      <c r="U109" t="s">
-        <v>142</v>
-      </c>
-      <c r="V109" t="str">
+      <c r="Y109" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z109" t="str">
+        <f>CONCATENATE(I109,J109,K109,L109,M109,N109,O109,P109,Q109,R109,S109,T109,Y109,)</f>
+        <v>        if(isset($_POST['r39'])){$query = strtolower($_POST['r39']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD109" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r39'])){$query = strtolower($_POST['r39']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z109" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r39'])){$query = strtolower($_POST['r39']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="110" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J110" t="s">
         <v>132</v>
@@ -8469,7 +9267,7 @@
         <v>40</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M110" t="s">
         <v>132</v>
@@ -8478,38 +9276,38 @@
         <v>40</v>
       </c>
       <c r="O110" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P110" t="s">
         <v>143</v>
       </c>
-      <c r="P110" t="s">
+      <c r="Q110" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q110" s="3" t="s">
+      <c r="R110" t="s">
         <v>145</v>
       </c>
-      <c r="R110" t="s">
+      <c r="S110" t="s">
+        <v>147</v>
+      </c>
+      <c r="T110" t="s">
         <v>146</v>
       </c>
-      <c r="S110" t="s">
-        <v>148</v>
-      </c>
-      <c r="T110" t="s">
-        <v>147</v>
-      </c>
-      <c r="U110" t="s">
-        <v>142</v>
-      </c>
-      <c r="V110" t="str">
+      <c r="Y110" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z110" t="str">
+        <f>CONCATENATE(I110,J110,K110,L110,M110,N110,O110,P110,Q110,R110,S110,T110,Y110,)</f>
+        <v>        if(isset($_POST['r40'])){$query = strtolower($_POST['r40']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD110" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r40'])){$query = strtolower($_POST['r40']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z110" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r40'])){$query = strtolower($_POST['r40']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="111" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I111" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J111" t="s">
         <v>132</v>
@@ -8518,7 +9316,7 @@
         <v>41</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M111" t="s">
         <v>132</v>
@@ -8527,38 +9325,38 @@
         <v>41</v>
       </c>
       <c r="O111" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P111" t="s">
         <v>143</v>
       </c>
-      <c r="P111" t="s">
+      <c r="Q111" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q111" s="3" t="s">
+      <c r="R111" t="s">
         <v>145</v>
       </c>
-      <c r="R111" t="s">
+      <c r="S111" t="s">
+        <v>147</v>
+      </c>
+      <c r="T111" t="s">
         <v>146</v>
       </c>
-      <c r="S111" t="s">
-        <v>148</v>
-      </c>
-      <c r="T111" t="s">
-        <v>147</v>
-      </c>
-      <c r="U111" t="s">
-        <v>142</v>
-      </c>
-      <c r="V111" t="str">
+      <c r="Y111" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z111" t="str">
+        <f>CONCATENATE(I111,J111,K111,L111,M111,N111,O111,P111,Q111,R111,S111,T111,Y111,)</f>
+        <v>        if(isset($_POST['r41'])){$query = strtolower($_POST['r41']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD111" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r41'])){$query = strtolower($_POST['r41']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z111" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r41'])){$query = strtolower($_POST['r41']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="112" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I112" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J112" t="s">
         <v>132</v>
@@ -8567,7 +9365,7 @@
         <v>42</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M112" t="s">
         <v>132</v>
@@ -8576,38 +9374,38 @@
         <v>42</v>
       </c>
       <c r="O112" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P112" t="s">
         <v>143</v>
       </c>
-      <c r="P112" t="s">
+      <c r="Q112" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q112" s="3" t="s">
+      <c r="R112" t="s">
         <v>145</v>
       </c>
-      <c r="R112" t="s">
+      <c r="S112" t="s">
+        <v>147</v>
+      </c>
+      <c r="T112" t="s">
         <v>146</v>
       </c>
-      <c r="S112" t="s">
-        <v>148</v>
-      </c>
-      <c r="T112" t="s">
-        <v>147</v>
-      </c>
-      <c r="U112" t="s">
-        <v>142</v>
-      </c>
-      <c r="V112" t="str">
+      <c r="Y112" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z112" t="str">
+        <f>CONCATENATE(I112,J112,K112,L112,M112,N112,O112,P112,Q112,R112,S112,T112,Y112,)</f>
+        <v>        if(isset($_POST['r42'])){$query = strtolower($_POST['r42']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD112" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r42'])){$query = strtolower($_POST['r42']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z112" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r42'])){$query = strtolower($_POST['r42']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="113" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I113" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J113" t="s">
         <v>132</v>
@@ -8616,7 +9414,7 @@
         <v>43</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M113" t="s">
         <v>132</v>
@@ -8625,38 +9423,38 @@
         <v>43</v>
       </c>
       <c r="O113" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P113" t="s">
         <v>143</v>
       </c>
-      <c r="P113" t="s">
+      <c r="Q113" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q113" s="3" t="s">
+      <c r="R113" t="s">
         <v>145</v>
       </c>
-      <c r="R113" t="s">
+      <c r="S113" t="s">
+        <v>147</v>
+      </c>
+      <c r="T113" t="s">
         <v>146</v>
       </c>
-      <c r="S113" t="s">
-        <v>148</v>
-      </c>
-      <c r="T113" t="s">
-        <v>147</v>
-      </c>
-      <c r="U113" t="s">
-        <v>142</v>
-      </c>
-      <c r="V113" t="str">
+      <c r="Y113" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z113" t="str">
+        <f>CONCATENATE(I113,J113,K113,L113,M113,N113,O113,P113,Q113,R113,S113,T113,Y113,)</f>
+        <v>        if(isset($_POST['r43'])){$query = strtolower($_POST['r43']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD113" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r43'])){$query = strtolower($_POST['r43']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z113" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r43'])){$query = strtolower($_POST['r43']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="114" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J114" t="s">
         <v>132</v>
@@ -8665,7 +9463,7 @@
         <v>44</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M114" t="s">
         <v>132</v>
@@ -8674,38 +9472,38 @@
         <v>44</v>
       </c>
       <c r="O114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P114" t="s">
         <v>143</v>
       </c>
-      <c r="P114" t="s">
+      <c r="Q114" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q114" s="3" t="s">
+      <c r="R114" t="s">
         <v>145</v>
       </c>
-      <c r="R114" t="s">
+      <c r="S114" t="s">
+        <v>147</v>
+      </c>
+      <c r="T114" t="s">
         <v>146</v>
       </c>
-      <c r="S114" t="s">
-        <v>148</v>
-      </c>
-      <c r="T114" t="s">
-        <v>147</v>
-      </c>
-      <c r="U114" t="s">
-        <v>142</v>
-      </c>
-      <c r="V114" t="str">
+      <c r="Y114" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z114" t="str">
+        <f>CONCATENATE(I114,J114,K114,L114,M114,N114,O114,P114,Q114,R114,S114,T114,Y114,)</f>
+        <v>        if(isset($_POST['r44'])){$query = strtolower($_POST['r44']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD114" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r44'])){$query = strtolower($_POST['r44']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z114" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r44'])){$query = strtolower($_POST['r44']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="115" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J115" t="s">
         <v>132</v>
@@ -8714,7 +9512,7 @@
         <v>45</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M115" t="s">
         <v>132</v>
@@ -8723,38 +9521,38 @@
         <v>45</v>
       </c>
       <c r="O115" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P115" t="s">
         <v>143</v>
       </c>
-      <c r="P115" t="s">
+      <c r="Q115" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q115" s="3" t="s">
+      <c r="R115" t="s">
         <v>145</v>
       </c>
-      <c r="R115" t="s">
+      <c r="S115" t="s">
+        <v>147</v>
+      </c>
+      <c r="T115" t="s">
         <v>146</v>
       </c>
-      <c r="S115" t="s">
-        <v>148</v>
-      </c>
-      <c r="T115" t="s">
-        <v>147</v>
-      </c>
-      <c r="U115" t="s">
-        <v>142</v>
-      </c>
-      <c r="V115" t="str">
+      <c r="Y115" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z115" t="str">
+        <f>CONCATENATE(I115,J115,K115,L115,M115,N115,O115,P115,Q115,R115,S115,T115,Y115,)</f>
+        <v>        if(isset($_POST['r45'])){$query = strtolower($_POST['r45']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD115" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r45'])){$query = strtolower($_POST['r45']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z115" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r45'])){$query = strtolower($_POST['r45']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="116" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J116" t="s">
         <v>132</v>
@@ -8763,7 +9561,7 @@
         <v>46</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M116" t="s">
         <v>132</v>
@@ -8772,38 +9570,38 @@
         <v>46</v>
       </c>
       <c r="O116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P116" t="s">
         <v>143</v>
       </c>
-      <c r="P116" t="s">
+      <c r="Q116" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q116" s="3" t="s">
+      <c r="R116" t="s">
         <v>145</v>
       </c>
-      <c r="R116" t="s">
+      <c r="S116" t="s">
+        <v>147</v>
+      </c>
+      <c r="T116" t="s">
         <v>146</v>
       </c>
-      <c r="S116" t="s">
-        <v>148</v>
-      </c>
-      <c r="T116" t="s">
-        <v>147</v>
-      </c>
-      <c r="U116" t="s">
-        <v>142</v>
-      </c>
-      <c r="V116" t="str">
+      <c r="Y116" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z116" t="str">
+        <f>CONCATENATE(I116,J116,K116,L116,M116,N116,O116,P116,Q116,R116,S116,T116,Y116,)</f>
+        <v>        if(isset($_POST['r46'])){$query = strtolower($_POST['r46']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD116" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r46'])){$query = strtolower($_POST['r46']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z116" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r46'])){$query = strtolower($_POST['r46']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="117" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J117" t="s">
         <v>132</v>
@@ -8812,7 +9610,7 @@
         <v>47</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M117" t="s">
         <v>132</v>
@@ -8821,38 +9619,38 @@
         <v>47</v>
       </c>
       <c r="O117" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P117" t="s">
         <v>143</v>
       </c>
-      <c r="P117" t="s">
+      <c r="Q117" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q117" s="3" t="s">
+      <c r="R117" t="s">
         <v>145</v>
       </c>
-      <c r="R117" t="s">
+      <c r="S117" t="s">
+        <v>147</v>
+      </c>
+      <c r="T117" t="s">
         <v>146</v>
       </c>
-      <c r="S117" t="s">
-        <v>148</v>
-      </c>
-      <c r="T117" t="s">
-        <v>147</v>
-      </c>
-      <c r="U117" t="s">
-        <v>142</v>
-      </c>
-      <c r="V117" t="str">
+      <c r="Y117" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z117" t="str">
+        <f>CONCATENATE(I117,J117,K117,L117,M117,N117,O117,P117,Q117,R117,S117,T117,Y117,)</f>
+        <v>        if(isset($_POST['r47'])){$query = strtolower($_POST['r47']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD117" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r47'])){$query = strtolower($_POST['r47']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z117" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r47'])){$query = strtolower($_POST['r47']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="118" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J118" t="s">
         <v>132</v>
@@ -8861,7 +9659,7 @@
         <v>48</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M118" t="s">
         <v>132</v>
@@ -8870,38 +9668,38 @@
         <v>48</v>
       </c>
       <c r="O118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P118" t="s">
         <v>143</v>
       </c>
-      <c r="P118" t="s">
+      <c r="Q118" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q118" s="3" t="s">
+      <c r="R118" t="s">
         <v>145</v>
       </c>
-      <c r="R118" t="s">
+      <c r="S118" t="s">
+        <v>147</v>
+      </c>
+      <c r="T118" t="s">
         <v>146</v>
       </c>
-      <c r="S118" t="s">
-        <v>148</v>
-      </c>
-      <c r="T118" t="s">
-        <v>147</v>
-      </c>
-      <c r="U118" t="s">
-        <v>142</v>
-      </c>
-      <c r="V118" t="str">
+      <c r="Y118" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z118" t="str">
+        <f>CONCATENATE(I118,J118,K118,L118,M118,N118,O118,P118,Q118,R118,S118,T118,Y118,)</f>
+        <v>        if(isset($_POST['r48'])){$query = strtolower($_POST['r48']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD118" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r48'])){$query = strtolower($_POST['r48']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z118" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r48'])){$query = strtolower($_POST['r48']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="119" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J119" t="s">
         <v>132</v>
@@ -8910,7 +9708,7 @@
         <v>49</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M119" t="s">
         <v>132</v>
@@ -8919,38 +9717,38 @@
         <v>49</v>
       </c>
       <c r="O119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P119" t="s">
         <v>143</v>
       </c>
-      <c r="P119" t="s">
+      <c r="Q119" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q119" s="3" t="s">
+      <c r="R119" t="s">
         <v>145</v>
       </c>
-      <c r="R119" t="s">
+      <c r="S119" t="s">
+        <v>147</v>
+      </c>
+      <c r="T119" t="s">
         <v>146</v>
       </c>
-      <c r="S119" t="s">
-        <v>148</v>
-      </c>
-      <c r="T119" t="s">
-        <v>147</v>
-      </c>
-      <c r="U119" t="s">
-        <v>142</v>
-      </c>
-      <c r="V119" t="str">
+      <c r="Y119" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z119" t="str">
+        <f>CONCATENATE(I119,J119,K119,L119,M119,N119,O119,P119,Q119,R119,S119,T119,Y119,)</f>
+        <v>        if(isset($_POST['r49'])){$query = strtolower($_POST['r49']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD119" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r49'])){$query = strtolower($_POST['r49']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z119" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r49'])){$query = strtolower($_POST['r49']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="120" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J120" t="s">
         <v>132</v>
@@ -8959,7 +9757,7 @@
         <v>50</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M120" t="s">
         <v>132</v>
@@ -8968,38 +9766,38 @@
         <v>50</v>
       </c>
       <c r="O120" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P120" t="s">
         <v>143</v>
       </c>
-      <c r="P120" t="s">
+      <c r="Q120" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q120" s="3" t="s">
+      <c r="R120" t="s">
         <v>145</v>
       </c>
-      <c r="R120" t="s">
+      <c r="S120" t="s">
+        <v>147</v>
+      </c>
+      <c r="T120" t="s">
         <v>146</v>
       </c>
-      <c r="S120" t="s">
-        <v>148</v>
-      </c>
-      <c r="T120" t="s">
-        <v>147</v>
-      </c>
-      <c r="U120" t="s">
-        <v>142</v>
-      </c>
-      <c r="V120" t="str">
+      <c r="Y120" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z120" t="str">
+        <f>CONCATENATE(I120,J120,K120,L120,M120,N120,O120,P120,Q120,R120,S120,T120,Y120,)</f>
+        <v>        if(isset($_POST['r50'])){$query = strtolower($_POST['r50']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD120" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r50'])){$query = strtolower($_POST['r50']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z120" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r50'])){$query = strtolower($_POST['r50']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="121" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J121" t="s">
         <v>132</v>
@@ -9008,7 +9806,7 @@
         <v>51</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M121" t="s">
         <v>132</v>
@@ -9017,38 +9815,38 @@
         <v>51</v>
       </c>
       <c r="O121" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P121" t="s">
         <v>143</v>
       </c>
-      <c r="P121" t="s">
+      <c r="Q121" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q121" s="3" t="s">
+      <c r="R121" t="s">
         <v>145</v>
       </c>
-      <c r="R121" t="s">
+      <c r="S121" t="s">
+        <v>147</v>
+      </c>
+      <c r="T121" t="s">
         <v>146</v>
       </c>
-      <c r="S121" t="s">
-        <v>148</v>
-      </c>
-      <c r="T121" t="s">
-        <v>147</v>
-      </c>
-      <c r="U121" t="s">
-        <v>142</v>
-      </c>
-      <c r="V121" t="str">
+      <c r="Y121" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z121" t="str">
+        <f>CONCATENATE(I121,J121,K121,L121,M121,N121,O121,P121,Q121,R121,S121,T121,Y121,)</f>
+        <v>        if(isset($_POST['r51'])){$query = strtolower($_POST['r51']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD121" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r51'])){$query = strtolower($_POST['r51']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z121" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r51'])){$query = strtolower($_POST['r51']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="122" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J122" t="s">
         <v>132</v>
@@ -9057,7 +9855,7 @@
         <v>52</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M122" t="s">
         <v>132</v>
@@ -9066,38 +9864,38 @@
         <v>52</v>
       </c>
       <c r="O122" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P122" t="s">
         <v>143</v>
       </c>
-      <c r="P122" t="s">
+      <c r="Q122" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q122" s="3" t="s">
+      <c r="R122" t="s">
         <v>145</v>
       </c>
-      <c r="R122" t="s">
+      <c r="S122" t="s">
+        <v>147</v>
+      </c>
+      <c r="T122" t="s">
         <v>146</v>
       </c>
-      <c r="S122" t="s">
-        <v>148</v>
-      </c>
-      <c r="T122" t="s">
-        <v>147</v>
-      </c>
-      <c r="U122" t="s">
-        <v>142</v>
-      </c>
-      <c r="V122" t="str">
+      <c r="Y122" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z122" t="str">
+        <f>CONCATENATE(I122,J122,K122,L122,M122,N122,O122,P122,Q122,R122,S122,T122,Y122,)</f>
+        <v>        if(isset($_POST['r52'])){$query = strtolower($_POST['r52']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD122" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r52'])){$query = strtolower($_POST['r52']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z122" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r52'])){$query = strtolower($_POST['r52']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="123" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J123" t="s">
         <v>132</v>
@@ -9106,7 +9904,7 @@
         <v>53</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M123" t="s">
         <v>132</v>
@@ -9115,38 +9913,38 @@
         <v>53</v>
       </c>
       <c r="O123" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P123" t="s">
         <v>143</v>
       </c>
-      <c r="P123" t="s">
+      <c r="Q123" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q123" s="3" t="s">
+      <c r="R123" t="s">
         <v>145</v>
       </c>
-      <c r="R123" t="s">
+      <c r="S123" t="s">
+        <v>147</v>
+      </c>
+      <c r="T123" t="s">
         <v>146</v>
       </c>
-      <c r="S123" t="s">
-        <v>148</v>
-      </c>
-      <c r="T123" t="s">
-        <v>147</v>
-      </c>
-      <c r="U123" t="s">
-        <v>142</v>
-      </c>
-      <c r="V123" t="str">
+      <c r="Y123" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z123" t="str">
+        <f>CONCATENATE(I123,J123,K123,L123,M123,N123,O123,P123,Q123,R123,S123,T123,Y123,)</f>
+        <v>        if(isset($_POST['r53'])){$query = strtolower($_POST['r53']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD123" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r53'])){$query = strtolower($_POST['r53']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z123" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r53'])){$query = strtolower($_POST['r53']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="124" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I124" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J124" t="s">
         <v>132</v>
@@ -9155,7 +9953,7 @@
         <v>54</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M124" t="s">
         <v>132</v>
@@ -9164,38 +9962,38 @@
         <v>54</v>
       </c>
       <c r="O124" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P124" t="s">
         <v>143</v>
       </c>
-      <c r="P124" t="s">
+      <c r="Q124" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q124" s="3" t="s">
+      <c r="R124" t="s">
         <v>145</v>
       </c>
-      <c r="R124" t="s">
+      <c r="S124" t="s">
+        <v>147</v>
+      </c>
+      <c r="T124" t="s">
         <v>146</v>
       </c>
-      <c r="S124" t="s">
-        <v>148</v>
-      </c>
-      <c r="T124" t="s">
-        <v>147</v>
-      </c>
-      <c r="U124" t="s">
-        <v>142</v>
-      </c>
-      <c r="V124" t="str">
+      <c r="Y124" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z124" t="str">
+        <f>CONCATENATE(I124,J124,K124,L124,M124,N124,O124,P124,Q124,R124,S124,T124,Y124,)</f>
+        <v>        if(isset($_POST['r54'])){$query = strtolower($_POST['r54']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD124" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r54'])){$query = strtolower($_POST['r54']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z124" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r54'])){$query = strtolower($_POST['r54']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="125" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J125" t="s">
         <v>132</v>
@@ -9204,7 +10002,7 @@
         <v>55</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M125" t="s">
         <v>132</v>
@@ -9213,38 +10011,38 @@
         <v>55</v>
       </c>
       <c r="O125" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P125" t="s">
         <v>143</v>
       </c>
-      <c r="P125" t="s">
+      <c r="Q125" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q125" s="3" t="s">
+      <c r="R125" t="s">
         <v>145</v>
       </c>
-      <c r="R125" t="s">
+      <c r="S125" t="s">
+        <v>147</v>
+      </c>
+      <c r="T125" t="s">
         <v>146</v>
       </c>
-      <c r="S125" t="s">
-        <v>148</v>
-      </c>
-      <c r="T125" t="s">
-        <v>147</v>
-      </c>
-      <c r="U125" t="s">
-        <v>142</v>
-      </c>
-      <c r="V125" t="str">
+      <c r="Y125" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z125" t="str">
+        <f>CONCATENATE(I125,J125,K125,L125,M125,N125,O125,P125,Q125,R125,S125,T125,Y125,)</f>
+        <v>        if(isset($_POST['r55'])){$query = strtolower($_POST['r55']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD125" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r55'])){$query = strtolower($_POST['r55']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z125" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r55'])){$query = strtolower($_POST['r55']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="126" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J126" t="s">
         <v>132</v>
@@ -9253,7 +10051,7 @@
         <v>56</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M126" t="s">
         <v>132</v>
@@ -9262,38 +10060,38 @@
         <v>56</v>
       </c>
       <c r="O126" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P126" t="s">
         <v>143</v>
       </c>
-      <c r="P126" t="s">
+      <c r="Q126" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q126" s="3" t="s">
+      <c r="R126" t="s">
         <v>145</v>
       </c>
-      <c r="R126" t="s">
+      <c r="S126" t="s">
+        <v>147</v>
+      </c>
+      <c r="T126" t="s">
         <v>146</v>
       </c>
-      <c r="S126" t="s">
-        <v>148</v>
-      </c>
-      <c r="T126" t="s">
-        <v>147</v>
-      </c>
-      <c r="U126" t="s">
-        <v>142</v>
-      </c>
-      <c r="V126" t="str">
+      <c r="Y126" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z126" t="str">
+        <f>CONCATENATE(I126,J126,K126,L126,M126,N126,O126,P126,Q126,R126,S126,T126,Y126,)</f>
+        <v>        if(isset($_POST['r56'])){$query = strtolower($_POST['r56']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD126" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r56'])){$query = strtolower($_POST['r56']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z126" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r56'])){$query = strtolower($_POST['r56']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="127" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I127" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J127" t="s">
         <v>132</v>
@@ -9302,7 +10100,7 @@
         <v>57</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M127" t="s">
         <v>132</v>
@@ -9311,38 +10109,38 @@
         <v>57</v>
       </c>
       <c r="O127" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P127" t="s">
         <v>143</v>
       </c>
-      <c r="P127" t="s">
+      <c r="Q127" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q127" s="3" t="s">
+      <c r="R127" t="s">
         <v>145</v>
       </c>
-      <c r="R127" t="s">
+      <c r="S127" t="s">
+        <v>147</v>
+      </c>
+      <c r="T127" t="s">
         <v>146</v>
       </c>
-      <c r="S127" t="s">
-        <v>148</v>
-      </c>
-      <c r="T127" t="s">
-        <v>147</v>
-      </c>
-      <c r="U127" t="s">
-        <v>142</v>
-      </c>
-      <c r="V127" t="str">
+      <c r="Y127" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z127" t="str">
+        <f>CONCATENATE(I127,J127,K127,L127,M127,N127,O127,P127,Q127,R127,S127,T127,Y127,)</f>
+        <v>        if(isset($_POST['r57'])){$query = strtolower($_POST['r57']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD127" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r57'])){$query = strtolower($_POST['r57']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z127" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r57'])){$query = strtolower($_POST['r57']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="128" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I128" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J128" t="s">
         <v>132</v>
@@ -9351,7 +10149,7 @@
         <v>58</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M128" t="s">
         <v>132</v>
@@ -9360,38 +10158,38 @@
         <v>58</v>
       </c>
       <c r="O128" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P128" t="s">
         <v>143</v>
       </c>
-      <c r="P128" t="s">
+      <c r="Q128" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q128" s="3" t="s">
+      <c r="R128" t="s">
         <v>145</v>
       </c>
-      <c r="R128" t="s">
+      <c r="S128" t="s">
+        <v>147</v>
+      </c>
+      <c r="T128" t="s">
         <v>146</v>
       </c>
-      <c r="S128" t="s">
-        <v>148</v>
-      </c>
-      <c r="T128" t="s">
-        <v>147</v>
-      </c>
-      <c r="U128" t="s">
-        <v>142</v>
-      </c>
-      <c r="V128" t="str">
+      <c r="Y128" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z128" t="str">
+        <f>CONCATENATE(I128,J128,K128,L128,M128,N128,O128,P128,Q128,R128,S128,T128,Y128,)</f>
+        <v>        if(isset($_POST['r58'])){$query = strtolower($_POST['r58']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD128" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r58'])){$query = strtolower($_POST['r58']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z128" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r58'])){$query = strtolower($_POST['r58']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="129" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J129" t="s">
         <v>132</v>
@@ -9400,7 +10198,7 @@
         <v>59</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M129" t="s">
         <v>132</v>
@@ -9409,38 +10207,38 @@
         <v>59</v>
       </c>
       <c r="O129" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P129" t="s">
         <v>143</v>
       </c>
-      <c r="P129" t="s">
+      <c r="Q129" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q129" s="3" t="s">
+      <c r="R129" t="s">
         <v>145</v>
       </c>
-      <c r="R129" t="s">
+      <c r="S129" t="s">
+        <v>147</v>
+      </c>
+      <c r="T129" t="s">
         <v>146</v>
       </c>
-      <c r="S129" t="s">
-        <v>148</v>
-      </c>
-      <c r="T129" t="s">
-        <v>147</v>
-      </c>
-      <c r="U129" t="s">
-        <v>142</v>
-      </c>
-      <c r="V129" t="str">
+      <c r="Y129" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z129" t="str">
+        <f>CONCATENATE(I129,J129,K129,L129,M129,N129,O129,P129,Q129,R129,S129,T129,Y129,)</f>
+        <v>        if(isset($_POST['r59'])){$query = strtolower($_POST['r59']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD129" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r59'])){$query = strtolower($_POST['r59']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z129" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r59'])){$query = strtolower($_POST['r59']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="130" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J130" t="s">
         <v>132</v>
@@ -9449,7 +10247,7 @@
         <v>60</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M130" t="s">
         <v>132</v>
@@ -9458,38 +10256,38 @@
         <v>60</v>
       </c>
       <c r="O130" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P130" t="s">
         <v>143</v>
       </c>
-      <c r="P130" t="s">
+      <c r="Q130" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q130" s="3" t="s">
+      <c r="R130" t="s">
         <v>145</v>
       </c>
-      <c r="R130" t="s">
+      <c r="S130" t="s">
+        <v>147</v>
+      </c>
+      <c r="T130" t="s">
         <v>146</v>
       </c>
-      <c r="S130" t="s">
-        <v>148</v>
-      </c>
-      <c r="T130" t="s">
-        <v>147</v>
-      </c>
-      <c r="U130" t="s">
-        <v>142</v>
-      </c>
-      <c r="V130" t="str">
+      <c r="Y130" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z130" t="str">
+        <f>CONCATENATE(I130,J130,K130,L130,M130,N130,O130,P130,Q130,R130,S130,T130,Y130,)</f>
+        <v>        if(isset($_POST['r60'])){$query = strtolower($_POST['r60']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD130" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r60'])){$query = strtolower($_POST['r60']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z130" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r60'])){$query = strtolower($_POST['r60']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="131" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I131" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J131" t="s">
         <v>132</v>
@@ -9498,7 +10296,7 @@
         <v>61</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M131" t="s">
         <v>132</v>
@@ -9507,38 +10305,38 @@
         <v>61</v>
       </c>
       <c r="O131" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P131" t="s">
         <v>143</v>
       </c>
-      <c r="P131" t="s">
+      <c r="Q131" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q131" s="3" t="s">
+      <c r="R131" t="s">
         <v>145</v>
       </c>
-      <c r="R131" t="s">
+      <c r="S131" t="s">
+        <v>147</v>
+      </c>
+      <c r="T131" t="s">
         <v>146</v>
       </c>
-      <c r="S131" t="s">
-        <v>148</v>
-      </c>
-      <c r="T131" t="s">
-        <v>147</v>
-      </c>
-      <c r="U131" t="s">
-        <v>142</v>
-      </c>
-      <c r="V131" t="str">
+      <c r="Y131" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z131" t="str">
+        <f>CONCATENATE(I131,J131,K131,L131,M131,N131,O131,P131,Q131,R131,S131,T131,Y131,)</f>
+        <v>        if(isset($_POST['r61'])){$query = strtolower($_POST['r61']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD131" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r61'])){$query = strtolower($_POST['r61']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z131" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r61'])){$query = strtolower($_POST['r61']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="132" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J132" t="s">
         <v>132</v>
@@ -9547,7 +10345,7 @@
         <v>62</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M132" t="s">
         <v>132</v>
@@ -9556,38 +10354,38 @@
         <v>62</v>
       </c>
       <c r="O132" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P132" t="s">
         <v>143</v>
       </c>
-      <c r="P132" t="s">
+      <c r="Q132" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q132" s="3" t="s">
+      <c r="R132" t="s">
         <v>145</v>
       </c>
-      <c r="R132" t="s">
+      <c r="S132" t="s">
+        <v>147</v>
+      </c>
+      <c r="T132" t="s">
         <v>146</v>
       </c>
-      <c r="S132" t="s">
-        <v>148</v>
-      </c>
-      <c r="T132" t="s">
-        <v>147</v>
-      </c>
-      <c r="U132" t="s">
-        <v>142</v>
-      </c>
-      <c r="V132" t="str">
+      <c r="Y132" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z132" t="str">
+        <f>CONCATENATE(I132,J132,K132,L132,M132,N132,O132,P132,Q132,R132,S132,T132,Y132,)</f>
+        <v>        if(isset($_POST['r62'])){$query = strtolower($_POST['r62']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD132" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r62'])){$query = strtolower($_POST['r62']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z132" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r62'])){$query = strtolower($_POST['r62']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="133" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J133" t="s">
         <v>132</v>
@@ -9596,7 +10394,7 @@
         <v>63</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M133" t="s">
         <v>132</v>
@@ -9605,38 +10403,38 @@
         <v>63</v>
       </c>
       <c r="O133" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P133" t="s">
         <v>143</v>
       </c>
-      <c r="P133" t="s">
+      <c r="Q133" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q133" s="3" t="s">
+      <c r="R133" t="s">
         <v>145</v>
       </c>
-      <c r="R133" t="s">
+      <c r="S133" t="s">
+        <v>147</v>
+      </c>
+      <c r="T133" t="s">
         <v>146</v>
       </c>
-      <c r="S133" t="s">
-        <v>148</v>
-      </c>
-      <c r="T133" t="s">
-        <v>147</v>
-      </c>
-      <c r="U133" t="s">
-        <v>142</v>
-      </c>
-      <c r="V133" t="str">
+      <c r="Y133" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z133" t="str">
+        <f>CONCATENATE(I133,J133,K133,L133,M133,N133,O133,P133,Q133,R133,S133,T133,Y133,)</f>
+        <v>        if(isset($_POST['r63'])){$query = strtolower($_POST['r63']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD133" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r63'])){$query = strtolower($_POST['r63']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z133" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r63'])){$query = strtolower($_POST['r63']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="134" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J134" t="s">
         <v>132</v>
@@ -9645,7 +10443,7 @@
         <v>64</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M134" t="s">
         <v>132</v>
@@ -9654,38 +10452,38 @@
         <v>64</v>
       </c>
       <c r="O134" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P134" t="s">
         <v>143</v>
       </c>
-      <c r="P134" t="s">
+      <c r="Q134" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q134" s="3" t="s">
+      <c r="R134" t="s">
         <v>145</v>
       </c>
-      <c r="R134" t="s">
+      <c r="S134" t="s">
+        <v>147</v>
+      </c>
+      <c r="T134" t="s">
         <v>146</v>
       </c>
-      <c r="S134" t="s">
-        <v>148</v>
-      </c>
-      <c r="T134" t="s">
-        <v>147</v>
-      </c>
-      <c r="U134" t="s">
-        <v>142</v>
-      </c>
-      <c r="V134" t="str">
+      <c r="Y134" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z134" t="str">
+        <f>CONCATENATE(I134,J134,K134,L134,M134,N134,O134,P134,Q134,R134,S134,T134,Y134,)</f>
+        <v>        if(isset($_POST['r64'])){$query = strtolower($_POST['r64']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD134" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r64'])){$query = strtolower($_POST['r64']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z134" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r64'])){$query = strtolower($_POST['r64']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
-    <row r="135" spans="9:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J135" t="s">
         <v>132</v>
@@ -9694,7 +10492,7 @@
         <v>65</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M135" t="s">
         <v>132</v>
@@ -9703,32 +10501,32 @@
         <v>65</v>
       </c>
       <c r="O135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P135" t="s">
         <v>143</v>
       </c>
-      <c r="P135" t="s">
+      <c r="Q135" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q135" s="3" t="s">
+      <c r="R135" t="s">
         <v>145</v>
       </c>
-      <c r="R135" t="s">
+      <c r="S135" t="s">
+        <v>147</v>
+      </c>
+      <c r="T135" t="s">
         <v>146</v>
       </c>
-      <c r="S135" t="s">
-        <v>148</v>
-      </c>
-      <c r="T135" t="s">
-        <v>147</v>
-      </c>
-      <c r="U135" t="s">
-        <v>142</v>
-      </c>
-      <c r="V135" t="str">
+      <c r="Y135" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z135" t="str">
+        <f>CONCATENATE(I135,J135,K135,L135,M135,N135,O135,P135,Q135,R135,S135,T135,Y135,)</f>
+        <v>        if(isset($_POST['r65'])){$query = strtolower($_POST['r65']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
+      </c>
+      <c r="AD135" t="str">
         <f t="shared" si="11"/>
-        <v>        if(isset($_POST['r65'])){$query = strtolower($_POST['r65']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output);foreach($output as $line){echo $line.'&lt;br&gt;';}$query = NULL;$output = NULL;$lastline=NULL;}</v>
-      </c>
-      <c r="Z135" t="str">
-        <f t="shared" si="12"/>
         <v>        if(isset($_POST['r65'])){$query = strtolower($_POST['r65']);$lastline = exec('swipl -s Prolog/Codigo.pl -g "esta_encendido(Y,'.$query.')" -t halt.',$output</v>
       </c>
     </row>
